--- a/TH/wc_template_TH_v3.xlsx
+++ b/TH/wc_template_TH_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\TH\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE95D0BD-4610-4ED6-8197-84D907917CF0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D10FD5C-CA66-4582-9C86-8C911D1F7FB9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="350" yWindow="290" windowWidth="17990" windowHeight="9670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31815" yWindow="1395" windowWidth="24675" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="103">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -234,9 +234,6 @@
   </si>
   <si>
     <t>L30D</t>
-  </si>
-  <si>
-    <t>L30S</t>
   </si>
   <si>
     <t>TH_Thai Samsung Electronics Co., Ltd</t>
@@ -1016,16 +1013,10 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1171,6 +1162,13 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1185,9 +1183,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1489,7 +1484,7 @@
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.54296875" customWidth="1"/>
     <col min="2" max="2" width="50.54296875" bestFit="1" customWidth="1"/>
@@ -1497,16 +1492,22 @@
     <col min="5" max="5" width="14.81640625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12.1796875" customWidth="1"/>
     <col min="9" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="25" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="13.1796875" style="133" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="28" width="13.1796875" style="135" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="31" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="43" width="13.1796875" style="18" customWidth="1"/>
-    <col min="44" max="47" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
-    <col min="48" max="50" width="13.1796875" style="18" customWidth="1"/>
+    <col min="10" max="25" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="13.1796875" style="131" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="28" width="13.1796875" style="133" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="31" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="13.1796875" style="18" customWidth="1" collapsed="1"/>
+    <col min="33" max="36" width="13.1796875" style="18" customWidth="1"/>
+    <col min="37" max="37" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="38" max="38" width="13.1796875" style="167" customWidth="1" collapsed="1"/>
+    <col min="39" max="42" width="13.1796875" style="18" customWidth="1"/>
+    <col min="43" max="47" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="48" max="48" width="13.1796875" style="167" customWidth="1" collapsed="1"/>
+    <col min="49" max="50" width="13.1796875" style="18" customWidth="1"/>
     <col min="51" max="51" width="13.1796875" style="62" customWidth="1"/>
-    <col min="52" max="53" width="13.1796875" style="18" customWidth="1"/>
-    <col min="54" max="57" width="13.1796875" style="18" customWidth="1" outlineLevel="1"/>
+    <col min="52" max="52" width="13.1796875" style="18" customWidth="1"/>
+    <col min="53" max="57" width="13.1796875" style="18" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="58" max="58" width="8.81640625" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.35">
@@ -1541,7 +1542,7 @@
       <c r="W1" s="80"/>
       <c r="X1" s="80"/>
       <c r="Y1" s="80"/>
-      <c r="Z1" s="120"/>
+      <c r="Z1" s="118"/>
       <c r="AA1" s="80"/>
       <c r="AB1" s="80"/>
       <c r="AC1" s="80"/>
@@ -1555,7 +1556,7 @@
       <c r="AI1" s="63"/>
       <c r="AJ1" s="63"/>
       <c r="AK1" s="63"/>
-      <c r="AL1" s="74"/>
+      <c r="AL1" s="63"/>
       <c r="AM1" s="74"/>
       <c r="AN1" s="74"/>
       <c r="AO1" s="74"/>
@@ -1565,7 +1566,7 @@
       <c r="AS1" s="74"/>
       <c r="AT1" s="74"/>
       <c r="AU1" s="74"/>
-      <c r="AV1" s="74"/>
+      <c r="AV1" s="63"/>
       <c r="AW1" s="74"/>
       <c r="AX1" s="74"/>
       <c r="AY1" s="74"/>
@@ -1574,7 +1575,7 @@
       <c r="BB1" s="74"/>
       <c r="BC1" s="74"/>
       <c r="BD1" s="74"/>
-      <c r="BE1" s="150"/>
+      <c r="BE1" s="148"/>
     </row>
     <row r="2" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11"/>
@@ -1617,11 +1618,11 @@
       <c r="W2" s="83"/>
       <c r="X2" s="83"/>
       <c r="Y2" s="83"/>
-      <c r="Z2" s="121" t="s">
+      <c r="Z2" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="119"/>
-      <c r="AB2" s="119"/>
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="117"/>
       <c r="AC2" s="83" t="s">
         <v>58</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>36</v>
       </c>
       <c r="AQ3" s="70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR3" s="78">
         <v>43709</v>
@@ -1800,10 +1801,10 @@
       <c r="AS3" s="78">
         <v>43739</v>
       </c>
-      <c r="AT3" s="116">
+      <c r="AT3" s="114">
         <v>43770</v>
       </c>
-      <c r="AU3" s="147" t="s">
+      <c r="AU3" s="145" t="s">
         <v>61</v>
       </c>
       <c r="AV3" s="72" t="s">
@@ -1815,13 +1816,13 @@
       <c r="AX3" s="78">
         <v>43739</v>
       </c>
-      <c r="AY3" s="116">
+      <c r="AY3" s="114">
         <v>43770</v>
       </c>
       <c r="AZ3" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="BA3" s="148" t="s">
+      <c r="BA3" s="146" t="s">
         <v>61</v>
       </c>
       <c r="BB3" s="78">
@@ -1830,10 +1831,10 @@
       <c r="BC3" s="78">
         <v>43739</v>
       </c>
-      <c r="BD3" s="149">
+      <c r="BD3" s="147">
         <v>43770</v>
       </c>
-      <c r="BE3" s="151" t="s">
+      <c r="BE3" s="149" t="s">
         <v>61</v>
       </c>
       <c r="BF3" s="2"/>
@@ -1841,14 +1842,14 @@
     </row>
     <row r="4" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="96"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-      <c r="I4" s="112"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
       <c r="J4" s="97" t="e">
         <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -1881,20 +1882,20 @@
         <f>VLOOKUP($B4,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="122"/>
-      <c r="W4" s="122"/>
-      <c r="X4" s="122"/>
-      <c r="Y4" s="122"/>
-      <c r="Z4" s="130"/>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="122"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="122"/>
+      <c r="R4" s="120"/>
+      <c r="S4" s="120"/>
+      <c r="T4" s="120"/>
+      <c r="U4" s="120"/>
+      <c r="V4" s="120"/>
+      <c r="W4" s="120"/>
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="128"/>
+      <c r="AA4" s="128"/>
+      <c r="AB4" s="128"/>
+      <c r="AC4" s="120"/>
+      <c r="AD4" s="120"/>
+      <c r="AE4" s="120"/>
       <c r="AF4" s="98" t="str">
         <f>IFERROR(VLOOKUP($B4,TH!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -1907,7 +1908,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI4" s="123" t="str">
+      <c r="AI4" s="121" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -1915,31 +1916,31 @@
         <f t="shared" ref="AJ4:AJ19" si="1">IFERROR(AF4-AI4, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AK4" s="152" t="str">
+      <c r="AK4" s="150" t="str">
         <f>IFERROR(IF(AQ4="n.a.", -BA4, IF(BA4="n.a.", AQ4, AQ4-BA4)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AL4" s="108" t="str">
+      <c r="AL4" s="166" t="str">
         <f>IFERROR(VLOOKUP($B4,TH!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
       <c r="AM4" s="99" t="str">
-        <f t="shared" ref="AM4:AO20" si="2">IFERROR(AR4/J4*30,"n.a.")</f>
+        <f>IFERROR(AR4/J4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AN4" s="102" t="str">
-        <f t="shared" si="2"/>
+        <f>IFERROR(AS4/K4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AO4" s="99" t="str">
-        <f>IFERROR(AT4/L4*30,"n.a.")</f>
+        <f>IFERROR(AT4/L4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AP4" s="100" t="str">
-        <f t="shared" ref="AP4:AP19" si="3">IFERROR(-AO4+AL4,"n.a.")</f>
+        <f t="shared" ref="AP4:AP19" si="2">IFERROR(-AO4+AL4,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AQ4" s="123" t="str">
+      <c r="AQ4" s="121" t="str">
         <f>IFERROR(AU4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
@@ -1959,27 +1960,27 @@
         <f>VLOOKUP(B4,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV4" s="111" t="str">
+      <c r="AV4" s="104" t="str">
         <f>IFERROR(VLOOKUP($B4,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
       <c r="AW4" s="99" t="str">
-        <f t="shared" ref="AW4:AY20" si="4">IFERROR(BB4/J4*30,"n.a.")</f>
+        <f>IFERROR(BB4/J4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX4" s="99" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(BC4/K4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AY4" s="95" t="str">
-        <f t="shared" si="4"/>
+        <f>IFERROR(BD4/L4*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AZ4" s="100" t="str">
-        <f t="shared" ref="AZ4:AZ18" si="5">IFERROR(-AV4+AY4, "n.a.")</f>
+        <f t="shared" ref="AZ4:AZ18" si="3">IFERROR(-AV4+AY4, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BA4" s="123" t="str">
+      <c r="BA4" s="121" t="str">
         <f>IFERROR(BE4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
@@ -1995,21 +1996,21 @@
         <f>VLOOKUP(B4,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE4" s="110" t="e">
+      <c r="BE4" s="109" t="e">
         <f>VLOOKUP(B4,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="103"/>
-      <c r="B5" s="114"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
       <c r="J5" s="97" t="e">
         <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2042,20 +2043,20 @@
         <f>VLOOKUP($B5,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R5" s="122"/>
-      <c r="S5" s="122"/>
-      <c r="T5" s="122"/>
-      <c r="U5" s="122"/>
-      <c r="V5" s="122"/>
-      <c r="W5" s="122"/>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="122"/>
-      <c r="Z5" s="131"/>
-      <c r="AA5" s="131"/>
-      <c r="AB5" s="130"/>
-      <c r="AC5" s="122"/>
-      <c r="AD5" s="122"/>
-      <c r="AE5" s="122"/>
+      <c r="R5" s="120"/>
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="120"/>
+      <c r="V5" s="120"/>
+      <c r="W5" s="120"/>
+      <c r="X5" s="120"/>
+      <c r="Y5" s="120"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="128"/>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="120"/>
+      <c r="AE5" s="120"/>
       <c r="AF5" s="98" t="str">
         <f>IFERROR(VLOOKUP($B5,TH!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2068,7 +2069,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI5" s="124" t="str">
+      <c r="AI5" s="122" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2076,43 +2077,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK5" s="152" t="str">
-        <f t="shared" ref="AK5:AK20" si="6">IFERROR(IF(AQ5="n.a.", -BA5, IF(BA5="n.a.", AQ5, AQ5-BA5)),"n.a.")</f>
+      <c r="AK5" s="150" t="str">
+        <f t="shared" ref="AK5:AK20" si="4">IFERROR(IF(AQ5="n.a.", -BA5, IF(BA5="n.a.", AQ5, AQ5-BA5)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AL5" s="108" t="str">
+      <c r="AL5" s="166" t="str">
         <f>IFERROR(VLOOKUP($B5,TH!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AM5" s="105" t="str">
+      <c r="AM5" s="99" t="str">
+        <f t="shared" ref="AM5:AM19" si="5">IFERROR(AR5/J5*90,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AN5" s="102" t="str">
+        <f t="shared" ref="AN5:AN19" si="6">IFERROR(AS5/K5*90,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AO5" s="99" t="str">
+        <f t="shared" ref="AO5:AO19" si="7">IFERROR(AT5/L5*90,"n.a.")</f>
+        <v>n.a.</v>
+      </c>
+      <c r="AP5" s="106" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN5" s="102" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ5" s="121" t="str">
+        <f t="shared" ref="AQ5:AQ20" si="8">IFERROR(AU5/M5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AO5" s="105" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP5" s="106" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ5" s="123" t="str">
-        <f t="shared" ref="AQ5:AQ20" si="7">IFERROR(AU5/M5*30,"n.a.")</f>
-        <v>n.a.</v>
-      </c>
-      <c r="AR5" s="110" t="e">
+      <c r="AR5" s="109" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS5" s="110" t="e">
+      <c r="AS5" s="109" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT5" s="110" t="e">
+      <c r="AT5" s="109" t="e">
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2120,57 +2121,57 @@
         <f>VLOOKUP(B5,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV5" s="111" t="str">
+      <c r="AV5" s="104" t="str">
         <f>IFERROR(VLOOKUP($B5,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW5" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW5" s="99" t="str">
+        <f t="shared" ref="AW5:AW19" si="9">IFERROR(BB5/J5*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AX5" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX5" s="99" t="str">
+        <f t="shared" ref="AX5:AX19" si="10">IFERROR(BC5/K5*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AY5" s="92" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY5" s="95" t="str">
+        <f t="shared" ref="AY5:AY19" si="11">IFERROR(BD5/L5*90,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AZ5" s="106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA5" s="123" t="str">
-        <f t="shared" ref="BA5:BA18" si="8">IFERROR(BE5/M5*30,"n.a.")</f>
+      <c r="BA5" s="121" t="str">
+        <f t="shared" ref="BA5:BA18" si="12">IFERROR(BE5/M5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB5" s="110" t="e">
+      <c r="BB5" s="109" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC5" s="110" t="e">
+      <c r="BC5" s="109" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD5" s="110" t="e">
+      <c r="BD5" s="109" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE5" s="110" t="e">
+      <c r="BE5" s="109" t="e">
         <f>VLOOKUP(B5,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="103"/>
-      <c r="B6" s="114"/>
-      <c r="C6" s="117"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="97" t="e">
         <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2203,20 +2204,20 @@
         <f>VLOOKUP($B6,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R6" s="122"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="130"/>
-      <c r="AA6" s="130"/>
-      <c r="AB6" s="130"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="120"/>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="128"/>
+      <c r="AA6" s="128"/>
+      <c r="AB6" s="128"/>
+      <c r="AC6" s="120"/>
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="120"/>
       <c r="AF6" s="98" t="str">
         <f>IFERROR(VLOOKUP($B6,TH!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2229,7 +2230,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI6" s="124" t="str">
+      <c r="AI6" s="122" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2237,43 +2238,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK6" s="152" t="str">
+      <c r="AK6" s="150" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL6" s="166" t="str">
+        <f>IFERROR(VLOOKUP($B6,TH!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM6" s="99" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN6" s="102" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL6" s="108" t="str">
-        <f>IFERROR(VLOOKUP($B6,TH!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM6" s="105" t="str">
+      <c r="AO6" s="99" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP6" s="106" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN6" s="109" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ6" s="121" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO6" s="105" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP6" s="106" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ6" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR6" s="110" t="e">
+      <c r="AR6" s="109" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS6" s="110" t="e">
+      <c r="AS6" s="109" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT6" s="110" t="e">
+      <c r="AT6" s="109" t="e">
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2281,57 +2282,57 @@
         <f>VLOOKUP(B6,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV6" s="111" t="str">
+      <c r="AV6" s="104" t="str">
         <f>IFERROR(VLOOKUP($B6,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW6" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW6" s="99" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX6" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX6" s="99" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY6" s="92" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY6" s="95" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ6" s="106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA6" s="123" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA6" s="121" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB6" s="110" t="e">
+      <c r="BB6" s="109" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC6" s="110" t="e">
+      <c r="BC6" s="109" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD6" s="110" t="e">
+      <c r="BD6" s="109" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE6" s="110" t="e">
+      <c r="BE6" s="109" t="e">
         <f>VLOOKUP(B6,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="103"/>
-      <c r="B7" s="114"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
       <c r="J7" s="97" t="e">
         <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2364,20 +2365,20 @@
         <f>VLOOKUP($B7,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="130"/>
-      <c r="AA7" s="130"/>
-      <c r="AB7" s="130"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="122"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
+      <c r="U7" s="120"/>
+      <c r="V7" s="120"/>
+      <c r="W7" s="120"/>
+      <c r="X7" s="120"/>
+      <c r="Y7" s="120"/>
+      <c r="Z7" s="128"/>
+      <c r="AA7" s="128"/>
+      <c r="AB7" s="128"/>
+      <c r="AC7" s="120"/>
+      <c r="AD7" s="120"/>
+      <c r="AE7" s="120"/>
       <c r="AF7" s="98" t="str">
         <f>IFERROR(VLOOKUP($B7,TH!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2390,7 +2391,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI7" s="124" t="str">
+      <c r="AI7" s="122" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2398,43 +2399,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK7" s="152" t="str">
+      <c r="AK7" s="150" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL7" s="166" t="str">
+        <f>IFERROR(VLOOKUP($B7,TH!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM7" s="99" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN7" s="102" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL7" s="108" t="str">
-        <f>IFERROR(VLOOKUP($B7,TH!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM7" s="105" t="str">
+      <c r="AO7" s="99" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP7" s="106" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN7" s="109" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ7" s="121" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO7" s="105" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP7" s="106" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ7" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR7" s="110" t="e">
+      <c r="AR7" s="109" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS7" s="110" t="e">
+      <c r="AS7" s="109" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT7" s="110" t="e">
+      <c r="AT7" s="109" t="e">
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2442,57 +2443,57 @@
         <f>VLOOKUP(B7,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV7" s="111" t="str">
+      <c r="AV7" s="104" t="str">
         <f>IFERROR(VLOOKUP($B7,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW7" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW7" s="99" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX7" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX7" s="99" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY7" s="92" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY7" s="95" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ7" s="106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA7" s="123" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA7" s="121" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB7" s="110" t="e">
+      <c r="BB7" s="109" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC7" s="110" t="e">
+      <c r="BC7" s="109" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD7" s="110" t="e">
+      <c r="BD7" s="109" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE7" s="110" t="e">
+      <c r="BE7" s="109" t="e">
         <f>VLOOKUP(B7,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="103"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
       <c r="J8" s="97" t="e">
         <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2525,20 +2526,20 @@
         <f>VLOOKUP($B8,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R8" s="122"/>
-      <c r="S8" s="122"/>
-      <c r="T8" s="122"/>
-      <c r="U8" s="122"/>
-      <c r="V8" s="122"/>
-      <c r="W8" s="122"/>
-      <c r="X8" s="122"/>
-      <c r="Y8" s="122"/>
-      <c r="Z8" s="130"/>
-      <c r="AA8" s="130"/>
-      <c r="AB8" s="130"/>
-      <c r="AC8" s="122"/>
-      <c r="AD8" s="122"/>
-      <c r="AE8" s="122"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
+      <c r="U8" s="120"/>
+      <c r="V8" s="120"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
+      <c r="Y8" s="120"/>
+      <c r="Z8" s="128"/>
+      <c r="AA8" s="128"/>
+      <c r="AB8" s="128"/>
+      <c r="AC8" s="120"/>
+      <c r="AD8" s="120"/>
+      <c r="AE8" s="120"/>
       <c r="AF8" s="98" t="str">
         <f>IFERROR(VLOOKUP($B8,TH!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2551,7 +2552,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI8" s="124" t="str">
+      <c r="AI8" s="122" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2559,43 +2560,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK8" s="152" t="str">
+      <c r="AK8" s="150" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL8" s="166" t="str">
+        <f>IFERROR(VLOOKUP($B8,TH!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM8" s="99" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN8" s="102" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL8" s="108" t="str">
-        <f>IFERROR(VLOOKUP($B8,TH!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM8" s="105" t="str">
+      <c r="AO8" s="99" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP8" s="106" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN8" s="109" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ8" s="121" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO8" s="105" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP8" s="106" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ8" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR8" s="110" t="e">
+      <c r="AR8" s="109" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS8" s="110" t="e">
+      <c r="AS8" s="109" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT8" s="110" t="e">
+      <c r="AT8" s="109" t="e">
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2603,57 +2604,57 @@
         <f>VLOOKUP(B8,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV8" s="111" t="str">
+      <c r="AV8" s="104" t="str">
         <f>IFERROR(VLOOKUP($B8,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW8" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW8" s="99" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX8" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX8" s="99" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY8" s="92" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY8" s="95" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ8" s="106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA8" s="123" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA8" s="121" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB8" s="110" t="e">
+      <c r="BB8" s="109" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC8" s="110" t="e">
+      <c r="BC8" s="109" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD8" s="110" t="e">
+      <c r="BD8" s="109" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE8" s="110" t="e">
+      <c r="BE8" s="109" t="e">
         <f>VLOOKUP(B8,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="103"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
       <c r="J9" s="97" t="e">
         <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2686,20 +2687,20 @@
         <f>VLOOKUP($B9,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="122"/>
-      <c r="W9" s="122"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="130"/>
-      <c r="AA9" s="130"/>
-      <c r="AB9" s="130"/>
-      <c r="AC9" s="122"/>
-      <c r="AD9" s="122"/>
-      <c r="AE9" s="122"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="120"/>
+      <c r="V9" s="120"/>
+      <c r="W9" s="120"/>
+      <c r="X9" s="120"/>
+      <c r="Y9" s="120"/>
+      <c r="Z9" s="128"/>
+      <c r="AA9" s="128"/>
+      <c r="AB9" s="128"/>
+      <c r="AC9" s="120"/>
+      <c r="AD9" s="120"/>
+      <c r="AE9" s="120"/>
       <c r="AF9" s="98" t="str">
         <f>IFERROR(VLOOKUP($B9,TH!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2712,7 +2713,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI9" s="124" t="str">
+      <c r="AI9" s="122" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2720,43 +2721,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK9" s="152" t="str">
+      <c r="AK9" s="150" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL9" s="166" t="str">
+        <f>IFERROR(VLOOKUP($B9,TH!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM9" s="99" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN9" s="102" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL9" s="108" t="str">
-        <f>IFERROR(VLOOKUP($B9,TH!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM9" s="105" t="str">
+      <c r="AO9" s="99" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP9" s="106" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN9" s="109" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ9" s="121" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO9" s="105" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP9" s="106" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ9" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR9" s="110" t="e">
+      <c r="AR9" s="109" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS9" s="110" t="e">
+      <c r="AS9" s="109" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT9" s="110" t="e">
+      <c r="AT9" s="109" t="e">
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2764,57 +2765,57 @@
         <f>VLOOKUP(B9,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV9" s="111" t="str">
+      <c r="AV9" s="104" t="str">
         <f>IFERROR(VLOOKUP($B9,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW9" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW9" s="99" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX9" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX9" s="99" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY9" s="92" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY9" s="95" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ9" s="106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA9" s="123" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA9" s="121" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB9" s="110" t="e">
+      <c r="BB9" s="109" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC9" s="110" t="e">
+      <c r="BC9" s="109" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD9" s="110" t="e">
+      <c r="BD9" s="109" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE9" s="110" t="e">
+      <c r="BE9" s="109" t="e">
         <f>VLOOKUP(B9,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="103"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
       <c r="J10" s="97" t="e">
         <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -2847,20 +2848,20 @@
         <f>VLOOKUP($B10,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="122"/>
-      <c r="U10" s="122"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="130"/>
-      <c r="AA10" s="130"/>
-      <c r="AB10" s="130"/>
-      <c r="AC10" s="122"/>
-      <c r="AD10" s="122"/>
-      <c r="AE10" s="122"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="120"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="120"/>
+      <c r="Y10" s="120"/>
+      <c r="Z10" s="128"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="120"/>
+      <c r="AD10" s="120"/>
+      <c r="AE10" s="120"/>
       <c r="AF10" s="98" t="str">
         <f>IFERROR(VLOOKUP($B10,TH!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -2873,7 +2874,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI10" s="124" t="str">
+      <c r="AI10" s="122" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -2881,43 +2882,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK10" s="152" t="str">
+      <c r="AK10" s="150" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL10" s="166" t="str">
+        <f>IFERROR(VLOOKUP($B10,TH!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM10" s="99" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN10" s="102" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL10" s="108" t="str">
-        <f>IFERROR(VLOOKUP($B10,TH!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM10" s="105" t="str">
+      <c r="AO10" s="99" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP10" s="106" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN10" s="109" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ10" s="121" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO10" s="105" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP10" s="106" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ10" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR10" s="110" t="e">
+      <c r="AR10" s="109" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS10" s="110" t="e">
+      <c r="AS10" s="109" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT10" s="110" t="e">
+      <c r="AT10" s="109" t="e">
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -2925,57 +2926,57 @@
         <f>VLOOKUP(B10,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV10" s="111" t="str">
+      <c r="AV10" s="104" t="str">
         <f>IFERROR(VLOOKUP($B10,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW10" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW10" s="99" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX10" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX10" s="99" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY10" s="92" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY10" s="95" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ10" s="106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA10" s="123" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA10" s="121" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB10" s="110" t="e">
+      <c r="BB10" s="109" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC10" s="110" t="e">
+      <c r="BC10" s="109" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD10" s="110" t="e">
+      <c r="BD10" s="109" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE10" s="110" t="e">
+      <c r="BE10" s="109" t="e">
         <f>VLOOKUP(B10,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="103"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
       <c r="J11" s="97" t="e">
         <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3008,20 +3009,20 @@
         <f>VLOOKUP($B11,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R11" s="122"/>
-      <c r="S11" s="122"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="122"/>
-      <c r="V11" s="122"/>
-      <c r="W11" s="122"/>
-      <c r="X11" s="122"/>
-      <c r="Y11" s="122"/>
-      <c r="Z11" s="130"/>
-      <c r="AA11" s="130"/>
-      <c r="AB11" s="130"/>
-      <c r="AC11" s="122"/>
-      <c r="AD11" s="122"/>
-      <c r="AE11" s="122"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="120"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="120"/>
+      <c r="X11" s="120"/>
+      <c r="Y11" s="120"/>
+      <c r="Z11" s="128"/>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="120"/>
+      <c r="AD11" s="120"/>
+      <c r="AE11" s="120"/>
       <c r="AF11" s="98" t="str">
         <f>IFERROR(VLOOKUP($B11,TH!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3034,7 +3035,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI11" s="124" t="str">
+      <c r="AI11" s="122" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3042,43 +3043,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK11" s="152" t="str">
+      <c r="AK11" s="150" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL11" s="166" t="str">
+        <f>IFERROR(VLOOKUP($B11,TH!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM11" s="99" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN11" s="102" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL11" s="108" t="str">
-        <f>IFERROR(VLOOKUP($B11,TH!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM11" s="105" t="str">
+      <c r="AO11" s="99" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP11" s="106" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN11" s="109" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ11" s="121" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO11" s="105" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP11" s="106" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ11" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR11" s="110" t="e">
+      <c r="AR11" s="109" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS11" s="110" t="e">
+      <c r="AS11" s="109" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT11" s="110" t="e">
+      <c r="AT11" s="109" t="e">
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3086,57 +3087,57 @@
         <f>VLOOKUP(B11,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV11" s="111" t="str">
+      <c r="AV11" s="104" t="str">
         <f>IFERROR(VLOOKUP($B11,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW11" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW11" s="99" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX11" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX11" s="99" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY11" s="92" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY11" s="95" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ11" s="106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA11" s="123" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA11" s="121" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB11" s="110" t="e">
+      <c r="BB11" s="109" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC11" s="110" t="e">
+      <c r="BC11" s="109" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD11" s="110" t="e">
+      <c r="BD11" s="109" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE11" s="110" t="e">
+      <c r="BE11" s="109" t="e">
         <f>VLOOKUP(B11,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="103"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
       <c r="J12" s="97" t="e">
         <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3169,20 +3170,20 @@
         <f>VLOOKUP($B12,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R12" s="122"/>
-      <c r="S12" s="122"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="122"/>
-      <c r="V12" s="122"/>
-      <c r="W12" s="122"/>
-      <c r="X12" s="122"/>
-      <c r="Y12" s="122"/>
-      <c r="Z12" s="130"/>
-      <c r="AA12" s="130"/>
-      <c r="AB12" s="130"/>
-      <c r="AC12" s="122"/>
-      <c r="AD12" s="122"/>
-      <c r="AE12" s="122"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="120"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="120"/>
+      <c r="Y12" s="120"/>
+      <c r="Z12" s="128"/>
+      <c r="AA12" s="128"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="120"/>
+      <c r="AD12" s="120"/>
+      <c r="AE12" s="120"/>
       <c r="AF12" s="98" t="str">
         <f>IFERROR(VLOOKUP($B12,TH!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3195,7 +3196,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI12" s="124" t="str">
+      <c r="AI12" s="122" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3203,43 +3204,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK12" s="152" t="str">
+      <c r="AK12" s="150" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL12" s="166" t="str">
+        <f>IFERROR(VLOOKUP($B12,TH!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM12" s="99" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN12" s="102" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL12" s="108" t="str">
-        <f>IFERROR(VLOOKUP($B12,TH!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM12" s="105" t="str">
+      <c r="AO12" s="99" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP12" s="106" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN12" s="109" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ12" s="121" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO12" s="105" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP12" s="106" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ12" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR12" s="110" t="e">
+      <c r="AR12" s="109" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS12" s="110" t="e">
+      <c r="AS12" s="109" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT12" s="110" t="e">
+      <c r="AT12" s="109" t="e">
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3247,57 +3248,57 @@
         <f>VLOOKUP(B12,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV12" s="111" t="str">
+      <c r="AV12" s="104" t="str">
         <f>IFERROR(VLOOKUP($B12,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW12" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW12" s="99" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX12" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX12" s="99" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY12" s="92" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY12" s="95" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ12" s="106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA12" s="123" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA12" s="121" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB12" s="110" t="e">
+      <c r="BB12" s="109" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC12" s="110" t="e">
+      <c r="BC12" s="109" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD12" s="110" t="e">
+      <c r="BD12" s="109" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE12" s="110" t="e">
+      <c r="BE12" s="109" t="e">
         <f>VLOOKUP(B12,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="103"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
       <c r="J13" s="97" t="e">
         <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3330,20 +3331,20 @@
         <f>VLOOKUP($B13,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R13" s="122"/>
-      <c r="S13" s="122"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="122"/>
-      <c r="V13" s="122"/>
-      <c r="W13" s="122"/>
-      <c r="X13" s="122"/>
-      <c r="Y13" s="122"/>
-      <c r="Z13" s="130"/>
-      <c r="AA13" s="130"/>
-      <c r="AB13" s="130"/>
-      <c r="AC13" s="122"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="122"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="120"/>
+      <c r="Y13" s="120"/>
+      <c r="Z13" s="128"/>
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="128"/>
+      <c r="AC13" s="120"/>
+      <c r="AD13" s="120"/>
+      <c r="AE13" s="120"/>
       <c r="AF13" s="98" t="str">
         <f>IFERROR(VLOOKUP($B13,TH!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3356,7 +3357,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI13" s="124" t="str">
+      <c r="AI13" s="122" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3364,43 +3365,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK13" s="152" t="str">
+      <c r="AK13" s="150" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL13" s="166" t="str">
+        <f>IFERROR(VLOOKUP($B13,TH!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM13" s="99" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN13" s="102" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL13" s="108" t="str">
-        <f>IFERROR(VLOOKUP($B13,TH!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM13" s="105" t="str">
+      <c r="AO13" s="99" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP13" s="106" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN13" s="109" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ13" s="121" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO13" s="105" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP13" s="106" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ13" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR13" s="110" t="e">
+      <c r="AR13" s="109" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS13" s="110" t="e">
+      <c r="AS13" s="109" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT13" s="110" t="e">
+      <c r="AT13" s="109" t="e">
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3408,57 +3409,57 @@
         <f>VLOOKUP(B13,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV13" s="111" t="str">
+      <c r="AV13" s="104" t="str">
         <f>IFERROR(VLOOKUP($B13,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW13" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW13" s="99" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX13" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX13" s="99" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY13" s="92" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY13" s="95" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ13" s="106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA13" s="123" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA13" s="121" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB13" s="110" t="e">
+      <c r="BB13" s="109" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC13" s="110" t="e">
+      <c r="BC13" s="109" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD13" s="110" t="e">
+      <c r="BD13" s="109" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE13" s="110" t="e">
+      <c r="BE13" s="109" t="e">
         <f>VLOOKUP(B13,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="103"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
       <c r="J14" s="97" t="e">
         <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3491,20 +3492,20 @@
         <f>VLOOKUP($B14,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R14" s="122"/>
-      <c r="S14" s="122"/>
-      <c r="T14" s="122"/>
-      <c r="U14" s="122"/>
-      <c r="V14" s="122"/>
-      <c r="W14" s="122"/>
-      <c r="X14" s="122"/>
-      <c r="Y14" s="122"/>
-      <c r="Z14" s="130"/>
-      <c r="AA14" s="130"/>
-      <c r="AB14" s="130"/>
-      <c r="AC14" s="122"/>
-      <c r="AD14" s="122"/>
-      <c r="AE14" s="122"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="120"/>
+      <c r="Y14" s="120"/>
+      <c r="Z14" s="128"/>
+      <c r="AA14" s="128"/>
+      <c r="AB14" s="128"/>
+      <c r="AC14" s="120"/>
+      <c r="AD14" s="120"/>
+      <c r="AE14" s="120"/>
       <c r="AF14" s="98" t="str">
         <f>IFERROR(VLOOKUP($B14,TH!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3517,7 +3518,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI14" s="124" t="str">
+      <c r="AI14" s="122" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3525,43 +3526,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK14" s="152" t="str">
+      <c r="AK14" s="150" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL14" s="166" t="str">
+        <f>IFERROR(VLOOKUP($B14,TH!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM14" s="99" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN14" s="102" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL14" s="108" t="str">
-        <f>IFERROR(VLOOKUP($B14,TH!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM14" s="105" t="str">
+      <c r="AO14" s="99" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP14" s="106" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN14" s="109" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ14" s="121" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO14" s="105" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP14" s="106" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ14" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR14" s="110" t="e">
+      <c r="AR14" s="109" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS14" s="110" t="e">
+      <c r="AS14" s="109" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT14" s="110" t="e">
+      <c r="AT14" s="109" t="e">
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3569,57 +3570,57 @@
         <f>VLOOKUP(B14,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV14" s="111" t="str">
+      <c r="AV14" s="104" t="str">
         <f>IFERROR(VLOOKUP($B14,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW14" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW14" s="99" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX14" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX14" s="99" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY14" s="92" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY14" s="95" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ14" s="106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA14" s="123" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA14" s="121" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB14" s="110" t="e">
+      <c r="BB14" s="109" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC14" s="110" t="e">
+      <c r="BC14" s="109" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD14" s="110" t="e">
+      <c r="BD14" s="109" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE14" s="110" t="e">
+      <c r="BE14" s="109" t="e">
         <f>VLOOKUP(B14,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="103"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
       <c r="J15" s="97" t="e">
         <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3652,20 +3653,20 @@
         <f>VLOOKUP($B15,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R15" s="122"/>
-      <c r="S15" s="122"/>
-      <c r="T15" s="122"/>
-      <c r="U15" s="122"/>
-      <c r="V15" s="122"/>
-      <c r="W15" s="122"/>
-      <c r="X15" s="122"/>
-      <c r="Y15" s="122"/>
-      <c r="Z15" s="130"/>
-      <c r="AA15" s="130"/>
-      <c r="AB15" s="130"/>
-      <c r="AC15" s="122"/>
-      <c r="AD15" s="122"/>
-      <c r="AE15" s="122"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
+      <c r="U15" s="120"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="120"/>
+      <c r="Y15" s="120"/>
+      <c r="Z15" s="128"/>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="120"/>
+      <c r="AD15" s="120"/>
+      <c r="AE15" s="120"/>
       <c r="AF15" s="98" t="str">
         <f>IFERROR(VLOOKUP($B15,TH!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3678,7 +3679,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI15" s="124" t="str">
+      <c r="AI15" s="122" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3686,43 +3687,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK15" s="152" t="str">
+      <c r="AK15" s="150" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL15" s="166" t="str">
+        <f>IFERROR(VLOOKUP($B15,TH!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM15" s="99" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN15" s="102" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL15" s="108" t="str">
-        <f>IFERROR(VLOOKUP($B15,TH!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM15" s="105" t="str">
+      <c r="AO15" s="99" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP15" s="106" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN15" s="109" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ15" s="121" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO15" s="105" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP15" s="106" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ15" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR15" s="110" t="e">
+      <c r="AR15" s="109" t="e">
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS15" s="110" t="e">
+      <c r="AS15" s="109" t="e">
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT15" s="110" t="e">
+      <c r="AT15" s="109" t="e">
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3730,57 +3731,57 @@
         <f>VLOOKUP(B15,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV15" s="111" t="str">
+      <c r="AV15" s="104" t="str">
         <f>IFERROR(VLOOKUP($B15,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW15" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW15" s="99" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX15" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX15" s="99" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY15" s="92" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY15" s="95" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ15" s="106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA15" s="123" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA15" s="121" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB15" s="110" t="e">
+      <c r="BB15" s="109" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC15" s="110" t="e">
+      <c r="BC15" s="109" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD15" s="110" t="e">
+      <c r="BD15" s="109" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE15" s="110" t="e">
+      <c r="BE15" s="109" t="e">
         <f>VLOOKUP(B15,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:59" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="103"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
       <c r="J16" s="97" t="e">
         <f>VLOOKUP($B16,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3813,20 +3814,20 @@
         <f>VLOOKUP($B16,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R16" s="122"/>
-      <c r="S16" s="122"/>
-      <c r="T16" s="122"/>
-      <c r="U16" s="122"/>
-      <c r="V16" s="122"/>
-      <c r="W16" s="122"/>
-      <c r="X16" s="122"/>
-      <c r="Y16" s="122"/>
-      <c r="Z16" s="130"/>
-      <c r="AA16" s="130"/>
-      <c r="AB16" s="130"/>
-      <c r="AC16" s="122"/>
-      <c r="AD16" s="122"/>
-      <c r="AE16" s="122"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="120"/>
+      <c r="Y16" s="120"/>
+      <c r="Z16" s="128"/>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="128"/>
+      <c r="AC16" s="120"/>
+      <c r="AD16" s="120"/>
+      <c r="AE16" s="120"/>
       <c r="AF16" s="98" t="str">
         <f>IFERROR(VLOOKUP($B16,TH!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -3839,7 +3840,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI16" s="124" t="str">
+      <c r="AI16" s="122" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -3847,43 +3848,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK16" s="152" t="str">
+      <c r="AK16" s="150" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL16" s="166" t="str">
+        <f>IFERROR(VLOOKUP($B16,TH!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM16" s="99" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN16" s="102" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL16" s="108" t="str">
-        <f>IFERROR(VLOOKUP($B16,TH!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM16" s="105" t="str">
+      <c r="AO16" s="99" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP16" s="106" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN16" s="109" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ16" s="121" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO16" s="105" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP16" s="106" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ16" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR16" s="110" t="e">
+      <c r="AR16" s="109" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS16" s="110" t="e">
+      <c r="AS16" s="109" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT16" s="110" t="e">
+      <c r="AT16" s="109" t="e">
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -3891,57 +3892,57 @@
         <f>VLOOKUP(B16,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV16" s="111" t="str">
+      <c r="AV16" s="104" t="str">
         <f>IFERROR(VLOOKUP($B16,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW16" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW16" s="99" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX16" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX16" s="99" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY16" s="92" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY16" s="95" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ16" s="106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA16" s="123" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA16" s="121" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB16" s="110" t="e">
+      <c r="BB16" s="109" t="e">
         <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC16" s="110" t="e">
+      <c r="BC16" s="109" t="e">
         <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD16" s="110" t="e">
+      <c r="BD16" s="109" t="e">
         <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE16" s="110" t="e">
+      <c r="BE16" s="109" t="e">
         <f>VLOOKUP(B16,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:57" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="103"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
       <c r="J17" s="97" t="e">
         <f>VLOOKUP($B17,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -3974,20 +3975,20 @@
         <f>VLOOKUP($B17,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R17" s="122"/>
-      <c r="S17" s="122"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="122"/>
-      <c r="V17" s="122"/>
-      <c r="W17" s="122"/>
-      <c r="X17" s="122"/>
-      <c r="Y17" s="122"/>
-      <c r="Z17" s="130"/>
-      <c r="AA17" s="130"/>
-      <c r="AB17" s="130"/>
-      <c r="AC17" s="122"/>
-      <c r="AD17" s="122"/>
-      <c r="AE17" s="122"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="120"/>
+      <c r="U17" s="120"/>
+      <c r="V17" s="120"/>
+      <c r="W17" s="120"/>
+      <c r="X17" s="120"/>
+      <c r="Y17" s="120"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="120"/>
+      <c r="AD17" s="120"/>
+      <c r="AE17" s="120"/>
       <c r="AF17" s="98" t="str">
         <f>IFERROR(VLOOKUP($B17,TH!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -4000,7 +4001,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI17" s="124" t="str">
+      <c r="AI17" s="122" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -4008,43 +4009,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK17" s="152" t="str">
+      <c r="AK17" s="150" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL17" s="166" t="str">
+        <f>IFERROR(VLOOKUP($B17,TH!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM17" s="99" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN17" s="102" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL17" s="108" t="str">
-        <f>IFERROR(VLOOKUP($B17,TH!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM17" s="105" t="str">
+      <c r="AO17" s="99" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP17" s="106" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN17" s="109" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ17" s="121" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO17" s="105" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP17" s="106" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ17" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR17" s="110" t="e">
+      <c r="AR17" s="109" t="e">
         <f>VLOOKUP(B17,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS17" s="110" t="e">
+      <c r="AS17" s="109" t="e">
         <f>VLOOKUP(B17,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT17" s="110" t="e">
+      <c r="AT17" s="109" t="e">
         <f>VLOOKUP(B17,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -4052,57 +4053,57 @@
         <f>VLOOKUP(B17,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV17" s="111" t="str">
+      <c r="AV17" s="104" t="str">
         <f>IFERROR(VLOOKUP($B17,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW17" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW17" s="99" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX17" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX17" s="99" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY17" s="92" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY17" s="95" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ17" s="106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA17" s="123" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA17" s="121" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB17" s="110" t="e">
+      <c r="BB17" s="109" t="e">
         <f>VLOOKUP(B17,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC17" s="110" t="e">
+      <c r="BC17" s="109" t="e">
         <f>VLOOKUP(B17,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD17" s="110" t="e">
+      <c r="BD17" s="109" t="e">
         <f>VLOOKUP(B17,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE17" s="110" t="e">
+      <c r="BE17" s="109" t="e">
         <f>VLOOKUP(B17,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:57" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="103"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
       <c r="J18" s="97" t="e">
         <f>VLOOKUP($B18,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
@@ -4135,20 +4136,20 @@
         <f>VLOOKUP($B18,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R18" s="122"/>
-      <c r="S18" s="122"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="122"/>
-      <c r="V18" s="122"/>
-      <c r="W18" s="122"/>
-      <c r="X18" s="122"/>
-      <c r="Y18" s="122"/>
-      <c r="Z18" s="130"/>
-      <c r="AA18" s="130"/>
-      <c r="AB18" s="130"/>
-      <c r="AC18" s="122"/>
-      <c r="AD18" s="122"/>
-      <c r="AE18" s="122"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="120"/>
+      <c r="Y18" s="120"/>
+      <c r="Z18" s="128"/>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="120"/>
+      <c r="AD18" s="120"/>
+      <c r="AE18" s="120"/>
       <c r="AF18" s="98" t="str">
         <f>IFERROR(VLOOKUP($B18,TH!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -4161,7 +4162,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI18" s="124" t="str">
+      <c r="AI18" s="122" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -4169,43 +4170,43 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK18" s="152" t="str">
+      <c r="AK18" s="150" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL18" s="166" t="str">
+        <f>IFERROR(VLOOKUP($B18,TH!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM18" s="99" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN18" s="102" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL18" s="108" t="str">
-        <f>IFERROR(VLOOKUP($B18,TH!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM18" s="105" t="str">
+      <c r="AO18" s="99" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP18" s="106" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN18" s="109" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ18" s="121" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO18" s="105" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP18" s="106" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ18" s="123" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR18" s="110" t="e">
+      <c r="AR18" s="109" t="e">
         <f>VLOOKUP(B18,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS18" s="110" t="e">
+      <c r="AS18" s="109" t="e">
         <f>VLOOKUP(B18,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT18" s="110" t="e">
+      <c r="AT18" s="109" t="e">
         <f>VLOOKUP(B18,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -4213,103 +4214,103 @@
         <f>VLOOKUP(B18,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV18" s="111" t="str">
+      <c r="AV18" s="104" t="str">
         <f>IFERROR(VLOOKUP($B18,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AW18" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AW18" s="99" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AX18" s="105" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX18" s="99" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
-      <c r="AY18" s="92" t="str">
-        <f t="shared" si="4"/>
+      <c r="AY18" s="95" t="str">
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ18" s="106" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
-      <c r="BA18" s="123" t="str">
-        <f t="shared" si="8"/>
+      <c r="BA18" s="121" t="str">
+        <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="BB18" s="110" t="e">
+      <c r="BB18" s="109" t="e">
         <f>VLOOKUP(B18,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC18" s="110" t="e">
+      <c r="BC18" s="109" t="e">
         <f>VLOOKUP(B18,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD18" s="110" t="e">
+      <c r="BD18" s="109" t="e">
         <f>VLOOKUP(B18,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE18" s="110" t="e">
+      <c r="BE18" s="109" t="e">
         <f>VLOOKUP(B18,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:57" s="146" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:57" s="144" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="103"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="110" t="e">
+      <c r="B19" s="112"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="109" t="e">
         <f>VLOOKUP($B19,'Daily COGS'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K19" s="110" t="e">
+      <c r="K19" s="109" t="e">
         <f>VLOOKUP($B19,'Daily COGS'!$B:$F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L19" s="110" t="e">
+      <c r="L19" s="109" t="e">
         <f>VLOOKUP($B19,'Daily COGS'!$B:$F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M19" s="110" t="e">
+      <c r="M19" s="109" t="e">
         <f>VLOOKUP($B19,'Daily COGS'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N19" s="110" t="e">
+      <c r="N19" s="109" t="e">
         <f>VLOOKUP($B19,'Daily Inbounds'!$B:$F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O19" s="110" t="e">
+      <c r="O19" s="109" t="e">
         <f>VLOOKUP($B19,'Daily Inbounds'!$B:$F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="P19" s="110" t="e">
+      <c r="P19" s="109" t="e">
         <f>VLOOKUP($B19,'Daily Inbounds'!$B:$F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q19" s="110" t="e">
+      <c r="Q19" s="109" t="e">
         <f>VLOOKUP($B19,'Daily Inbounds'!$B:$F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R19" s="144"/>
-      <c r="S19" s="144"/>
-      <c r="T19" s="144"/>
-      <c r="U19" s="144"/>
-      <c r="V19" s="144"/>
-      <c r="W19" s="144"/>
-      <c r="X19" s="144"/>
-      <c r="Y19" s="144"/>
-      <c r="Z19" s="145"/>
-      <c r="AA19" s="145"/>
-      <c r="AB19" s="145"/>
-      <c r="AC19" s="144"/>
-      <c r="AD19" s="144"/>
-      <c r="AE19" s="144"/>
+      <c r="R19" s="142"/>
+      <c r="S19" s="142"/>
+      <c r="T19" s="142"/>
+      <c r="U19" s="142"/>
+      <c r="V19" s="142"/>
+      <c r="W19" s="142"/>
+      <c r="X19" s="142"/>
+      <c r="Y19" s="142"/>
+      <c r="Z19" s="143"/>
+      <c r="AA19" s="143"/>
+      <c r="AB19" s="143"/>
+      <c r="AC19" s="142"/>
+      <c r="AD19" s="142"/>
+      <c r="AE19" s="142"/>
       <c r="AF19" s="104" t="str">
         <f>IFERROR(VLOOKUP($B19,TH!$A:$AJ, 23,FALSE), "")</f>
         <v/>
@@ -4322,7 +4323,7 @@
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI19" s="124" t="str">
+      <c r="AI19" s="122" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
@@ -4330,246 +4331,246 @@
         <f t="shared" si="1"/>
         <v>n.a.</v>
       </c>
-      <c r="AK19" s="153" t="str">
+      <c r="AK19" s="151" t="str">
+        <f t="shared" si="4"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AL19" s="166" t="str">
+        <f>IFERROR(VLOOKUP($B19,TH!$A:$AJ, 27,FALSE), "")</f>
+        <v/>
+      </c>
+      <c r="AM19" s="105" t="str">
+        <f t="shared" si="5"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AN19" s="108" t="str">
         <f t="shared" si="6"/>
         <v>n.a.</v>
       </c>
-      <c r="AL19" s="108" t="str">
-        <f>IFERROR(VLOOKUP($B19,TH!$A:$AJ, 27,FALSE), "")</f>
-        <v/>
-      </c>
-      <c r="AM19" s="105" t="str">
+      <c r="AO19" s="105" t="str">
+        <f t="shared" si="7"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AP19" s="106" t="str">
         <f t="shared" si="2"/>
         <v>n.a.</v>
       </c>
-      <c r="AN19" s="109" t="str">
-        <f t="shared" si="2"/>
+      <c r="AQ19" s="122" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AO19" s="105" t="str">
-        <f t="shared" si="2"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AP19" s="106" t="str">
-        <f t="shared" si="3"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AQ19" s="124" t="str">
-        <f t="shared" si="7"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AR19" s="110" t="e">
+      <c r="AR19" s="109" t="e">
         <f>VLOOKUP(B19,'Daily Inventory Value'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS19" s="110" t="e">
+      <c r="AS19" s="109" t="e">
         <f>VLOOKUP(B19,'Daily Inventory Value'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT19" s="110" t="e">
+      <c r="AT19" s="109" t="e">
         <f>VLOOKUP(B19,'Daily Inventory Value'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU19" s="110" t="e">
+      <c r="AU19" s="109" t="e">
         <f>VLOOKUP(B19,'Daily Inventory Value'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV19" s="111" t="str">
+      <c r="AV19" s="104" t="str">
         <f>IFERROR(VLOOKUP($B19,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
       <c r="AW19" s="105" t="str">
-        <f t="shared" ref="AW19" si="9">IFERROR(BB19/J19*30,"n.a.")</f>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AX19" s="105" t="str">
-        <f t="shared" ref="AX19" si="10">IFERROR(BC19/K19*30,"n.a.")</f>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AY19" s="92" t="str">
-        <f t="shared" ref="AY19" si="11">IFERROR(BD19/L19*30,"n.a.")</f>
+        <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
       <c r="AZ19" s="106" t="str">
-        <f t="shared" ref="AZ19" si="12">IFERROR(-AV19+AY19, "n.a.")</f>
+        <f t="shared" ref="AZ19" si="13">IFERROR(-AV19+AY19, "n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BA19" s="124" t="str">
-        <f t="shared" ref="BA19" si="13">IFERROR(BE19/M19*30,"n.a.")</f>
+      <c r="BA19" s="122" t="str">
+        <f t="shared" ref="BA19" si="14">IFERROR(BE19/M19*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB19" s="110" t="e">
+      <c r="BB19" s="109" t="e">
         <f>VLOOKUP(B19,'Daily Accounts Payable'!B:F,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC19" s="110" t="e">
+      <c r="BC19" s="109" t="e">
         <f>VLOOKUP(B19,'Daily Accounts Payable'!B:F,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD19" s="110" t="e">
+      <c r="BD19" s="109" t="e">
         <f>VLOOKUP(B19,'Daily Accounts Payable'!B:F,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE19" s="110" t="e">
+      <c r="BE19" s="109" t="e">
         <f>VLOOKUP(B19,'Daily Accounts Payable'!B:F,5,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:57" s="4" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="136" t="s">
+    <row r="20" spans="1:57" s="4" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="136"/>
-      <c r="C20" s="137">
+      <c r="B20" s="134"/>
+      <c r="C20" s="135">
         <f>SUM(C4:C19)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="137">
+      <c r="D20" s="135">
         <f>SUM(D4:D19)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="138">
+      <c r="E20" s="136">
         <f>SUM(E4:E19)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="137"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="138" t="e">
-        <f t="shared" ref="J20:Q20" si="14">SUM(J4:J19)</f>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="136" t="e">
+        <f t="shared" ref="J20:Q20" si="15">SUM(J4:J19)</f>
         <v>#N/A</v>
       </c>
-      <c r="K20" s="138" t="e">
-        <f t="shared" si="14"/>
+      <c r="K20" s="136" t="e">
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
-      <c r="L20" s="138" t="e">
-        <f t="shared" si="14"/>
+      <c r="L20" s="136" t="e">
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
-      <c r="M20" s="138" t="e">
-        <f t="shared" si="14"/>
+      <c r="M20" s="136" t="e">
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
-      <c r="N20" s="138" t="e">
-        <f t="shared" si="14"/>
+      <c r="N20" s="136" t="e">
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
-      <c r="O20" s="138" t="e">
-        <f t="shared" si="14"/>
+      <c r="O20" s="136" t="e">
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
-      <c r="P20" s="138" t="e">
-        <f t="shared" si="14"/>
+      <c r="P20" s="136" t="e">
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
-      <c r="Q20" s="138" t="e">
-        <f t="shared" si="14"/>
+      <c r="Q20" s="136" t="e">
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
-      <c r="R20" s="138"/>
-      <c r="S20" s="138"/>
-      <c r="T20" s="138"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="138"/>
-      <c r="W20" s="138"/>
-      <c r="X20" s="138"/>
-      <c r="Y20" s="138"/>
-      <c r="Z20" s="139"/>
-      <c r="AA20" s="140"/>
-      <c r="AB20" s="140"/>
-      <c r="AC20" s="138"/>
-      <c r="AD20" s="138"/>
-      <c r="AE20" s="138"/>
-      <c r="AF20" s="137"/>
-      <c r="AG20" s="137" t="str">
+      <c r="R20" s="136"/>
+      <c r="S20" s="136"/>
+      <c r="T20" s="136"/>
+      <c r="U20" s="136"/>
+      <c r="V20" s="136"/>
+      <c r="W20" s="136"/>
+      <c r="X20" s="136"/>
+      <c r="Y20" s="136"/>
+      <c r="Z20" s="137"/>
+      <c r="AA20" s="138"/>
+      <c r="AB20" s="138"/>
+      <c r="AC20" s="136"/>
+      <c r="AD20" s="136"/>
+      <c r="AE20" s="136"/>
+      <c r="AF20" s="135"/>
+      <c r="AG20" s="135" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AH20" s="137" t="str">
+      <c r="AH20" s="135" t="str">
         <f t="shared" si="0"/>
         <v>n.a.</v>
       </c>
-      <c r="AI20" s="137" t="str">
+      <c r="AI20" s="135" t="str">
         <f>IFERROR(IF(AO20="n.a.", -AY20, IF(AY20="n.a.", AO20, AO20-AY20)),"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AJ20" s="137"/>
-      <c r="AK20" s="172" t="str">
-        <f t="shared" si="6"/>
+      <c r="AJ20" s="135"/>
+      <c r="AK20" s="165" t="str">
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
-      <c r="AL20" s="141"/>
-      <c r="AM20" s="142" t="str">
-        <f t="shared" si="2"/>
+      <c r="AL20" s="139"/>
+      <c r="AM20" s="140" t="str">
+        <f t="shared" ref="AM4:AO20" si="16">IFERROR(AR20/J20*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AN20" s="142" t="str">
-        <f t="shared" si="2"/>
+      <c r="AN20" s="140" t="str">
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
-      <c r="AO20" s="142" t="str">
-        <f t="shared" si="2"/>
+      <c r="AO20" s="140" t="str">
+        <f t="shared" si="16"/>
         <v>n.a.</v>
       </c>
-      <c r="AP20" s="137"/>
-      <c r="AQ20" s="154" t="str">
-        <f t="shared" si="7"/>
+      <c r="AP20" s="135"/>
+      <c r="AQ20" s="152" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AR20" s="138" t="e">
+      <c r="AR20" s="136" t="e">
         <f>SUM(AR4:AR19)</f>
         <v>#N/A</v>
       </c>
-      <c r="AS20" s="138" t="e">
+      <c r="AS20" s="136" t="e">
         <f>SUM(AS4:AS19)</f>
         <v>#N/A</v>
       </c>
-      <c r="AT20" s="138" t="e">
+      <c r="AT20" s="136" t="e">
         <f>SUM(AT4:AT19)</f>
         <v>#N/A</v>
       </c>
-      <c r="AU20" s="138" t="e">
+      <c r="AU20" s="136" t="e">
         <f>SUM(AU4:AU19)</f>
         <v>#N/A</v>
       </c>
-      <c r="AV20" s="141"/>
-      <c r="AW20" s="143" t="str">
-        <f t="shared" si="4"/>
+      <c r="AV20" s="139"/>
+      <c r="AW20" s="141" t="str">
+        <f t="shared" ref="AW4:AY20" si="17">IFERROR(BB20/J20*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AX20" s="143" t="str">
-        <f t="shared" si="4"/>
+      <c r="AX20" s="141" t="str">
+        <f t="shared" si="17"/>
         <v>n.a.</v>
       </c>
-      <c r="AY20" s="142" t="str">
+      <c r="AY20" s="140" t="str">
         <f>IFERROR(BD20/L20*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="AZ20" s="137"/>
-      <c r="BA20" s="137" t="str">
+      <c r="AZ20" s="135"/>
+      <c r="BA20" s="135" t="str">
         <f>IFERROR(BE20/M20*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
-      <c r="BB20" s="138" t="e">
+      <c r="BB20" s="136" t="e">
         <f>SUM(BB4:BB19)</f>
         <v>#N/A</v>
       </c>
-      <c r="BC20" s="138" t="e">
+      <c r="BC20" s="136" t="e">
         <f>SUM(BC4:BC19)</f>
         <v>#N/A</v>
       </c>
-      <c r="BD20" s="138" t="e">
+      <c r="BD20" s="136" t="e">
         <f>SUM(BD4:BD19)</f>
         <v>#N/A</v>
       </c>
-      <c r="BE20" s="155" t="e">
+      <c r="BE20" s="153" t="e">
         <f>SUM(BE4:BE19)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:57" collapsed="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="17"/>
@@ -4595,9 +4596,9 @@
       <c r="W21" s="17"/>
       <c r="X21" s="17"/>
       <c r="Y21" s="17"/>
-      <c r="Z21" s="132"/>
-      <c r="AA21" s="134"/>
-      <c r="AB21" s="134"/>
+      <c r="Z21" s="130"/>
+      <c r="AA21" s="132"/>
+      <c r="AB21" s="132"/>
       <c r="AC21" s="17"/>
       <c r="AD21" s="17"/>
       <c r="AE21" s="17"/>
@@ -4607,7 +4608,7 @@
       <c r="AI21" s="17"/>
       <c r="AJ21" s="17"/>
       <c r="AK21" s="17"/>
-      <c r="AL21" s="17"/>
+      <c r="AL21" s="93"/>
       <c r="AM21" s="17"/>
       <c r="AN21" s="17"/>
       <c r="AO21" s="93" t="s">
@@ -4619,7 +4620,7 @@
       <c r="AS21" s="17"/>
       <c r="AT21" s="17"/>
       <c r="AU21" s="17"/>
-      <c r="AV21" s="17"/>
+      <c r="AV21" s="93"/>
       <c r="AW21" s="17"/>
       <c r="AX21" s="17"/>
       <c r="AY21" s="94" t="s">
@@ -4658,9 +4659,9 @@
       <c r="W22" s="17"/>
       <c r="X22" s="17"/>
       <c r="Y22" s="17"/>
-      <c r="Z22" s="132"/>
-      <c r="AA22" s="134"/>
-      <c r="AB22" s="134"/>
+      <c r="Z22" s="130"/>
+      <c r="AA22" s="132"/>
+      <c r="AB22" s="132"/>
       <c r="AC22" s="17"/>
       <c r="AD22" s="17"/>
       <c r="AE22" s="17"/>
@@ -4670,7 +4671,7 @@
       <c r="AI22" s="17"/>
       <c r="AJ22" s="17"/>
       <c r="AK22" s="17"/>
-      <c r="AL22" s="17"/>
+      <c r="AL22" s="93"/>
       <c r="AM22" s="17"/>
       <c r="AN22" s="17"/>
       <c r="AO22" s="17"/>
@@ -4680,7 +4681,7 @@
       <c r="AS22" s="17"/>
       <c r="AT22" s="17"/>
       <c r="AU22" s="17"/>
-      <c r="AV22" s="17"/>
+      <c r="AV22" s="93"/>
       <c r="AW22" s="17"/>
       <c r="AX22" s="17"/>
       <c r="AY22" s="61"/>
@@ -4717,9 +4718,9 @@
       <c r="W23" s="17"/>
       <c r="X23" s="17"/>
       <c r="Y23" s="17"/>
-      <c r="Z23" s="132"/>
-      <c r="AA23" s="134"/>
-      <c r="AB23" s="134"/>
+      <c r="Z23" s="130"/>
+      <c r="AA23" s="132"/>
+      <c r="AB23" s="132"/>
       <c r="AC23" s="17"/>
       <c r="AD23" s="17"/>
       <c r="AE23" s="17"/>
@@ -4729,7 +4730,7 @@
       <c r="AI23" s="17"/>
       <c r="AJ23" s="17"/>
       <c r="AK23" s="17"/>
-      <c r="AL23" s="17"/>
+      <c r="AL23" s="93"/>
       <c r="AM23" s="17"/>
       <c r="AN23" s="17"/>
       <c r="AO23" s="17"/>
@@ -4739,7 +4740,7 @@
       <c r="AS23" s="17"/>
       <c r="AT23" s="17"/>
       <c r="AU23" s="17"/>
-      <c r="AV23" s="17"/>
+      <c r="AV23" s="93"/>
       <c r="AW23" s="17"/>
       <c r="AX23" s="17"/>
       <c r="AY23" s="61"/>
@@ -4776,9 +4777,9 @@
       <c r="W24" s="17"/>
       <c r="X24" s="17"/>
       <c r="Y24" s="17"/>
-      <c r="Z24" s="132"/>
-      <c r="AA24" s="134"/>
-      <c r="AB24" s="134"/>
+      <c r="Z24" s="130"/>
+      <c r="AA24" s="132"/>
+      <c r="AB24" s="132"/>
       <c r="AC24" s="17"/>
       <c r="AD24" s="17"/>
       <c r="AE24" s="17"/>
@@ -4788,7 +4789,7 @@
       <c r="AI24" s="17"/>
       <c r="AJ24" s="17"/>
       <c r="AK24" s="17"/>
-      <c r="AL24" s="17"/>
+      <c r="AL24" s="93"/>
       <c r="AM24" s="17"/>
       <c r="AN24" s="17"/>
       <c r="AO24" s="17"/>
@@ -4798,7 +4799,7 @@
       <c r="AS24" s="17"/>
       <c r="AT24" s="17"/>
       <c r="AU24" s="17"/>
-      <c r="AV24" s="17"/>
+      <c r="AV24" s="93"/>
       <c r="AW24" s="17"/>
       <c r="AX24" s="17"/>
       <c r="AY24" s="61"/>
@@ -4835,9 +4836,9 @@
       <c r="W25" s="17"/>
       <c r="X25" s="17"/>
       <c r="Y25" s="17"/>
-      <c r="Z25" s="132"/>
-      <c r="AA25" s="134"/>
-      <c r="AB25" s="134"/>
+      <c r="Z25" s="130"/>
+      <c r="AA25" s="132"/>
+      <c r="AB25" s="132"/>
       <c r="AC25" s="17"/>
       <c r="AD25" s="17"/>
       <c r="AE25" s="17"/>
@@ -4847,7 +4848,7 @@
       <c r="AI25" s="17"/>
       <c r="AJ25" s="17"/>
       <c r="AK25" s="17"/>
-      <c r="AL25" s="17"/>
+      <c r="AL25" s="93"/>
       <c r="AM25" s="17"/>
       <c r="AN25" s="17"/>
       <c r="AO25" s="17"/>
@@ -4857,7 +4858,7 @@
       <c r="AS25" s="17"/>
       <c r="AT25" s="17"/>
       <c r="AU25" s="17"/>
-      <c r="AV25" s="17"/>
+      <c r="AV25" s="93"/>
       <c r="AW25" s="17"/>
       <c r="AX25" s="17"/>
       <c r="AY25" s="61"/>
@@ -4894,9 +4895,9 @@
       <c r="W26" s="17"/>
       <c r="X26" s="17"/>
       <c r="Y26" s="17"/>
-      <c r="Z26" s="132"/>
-      <c r="AA26" s="134"/>
-      <c r="AB26" s="134"/>
+      <c r="Z26" s="130"/>
+      <c r="AA26" s="132"/>
+      <c r="AB26" s="132"/>
       <c r="AC26" s="17"/>
       <c r="AD26" s="17"/>
       <c r="AE26" s="17"/>
@@ -4906,7 +4907,7 @@
       <c r="AI26" s="17"/>
       <c r="AJ26" s="17"/>
       <c r="AK26" s="17"/>
-      <c r="AL26" s="17"/>
+      <c r="AL26" s="93"/>
       <c r="AM26" s="17"/>
       <c r="AN26" s="17"/>
       <c r="AO26" s="17"/>
@@ -4916,7 +4917,7 @@
       <c r="AS26" s="17"/>
       <c r="AT26" s="17"/>
       <c r="AU26" s="17"/>
-      <c r="AV26" s="17"/>
+      <c r="AV26" s="93"/>
       <c r="AW26" s="17"/>
       <c r="AX26" s="17"/>
       <c r="AY26" s="61"/>
@@ -4953,9 +4954,9 @@
       <c r="W27" s="17"/>
       <c r="X27" s="17"/>
       <c r="Y27" s="17"/>
-      <c r="Z27" s="132"/>
-      <c r="AA27" s="134"/>
-      <c r="AB27" s="134"/>
+      <c r="Z27" s="130"/>
+      <c r="AA27" s="132"/>
+      <c r="AB27" s="132"/>
       <c r="AC27" s="17"/>
       <c r="AD27" s="17"/>
       <c r="AE27" s="17"/>
@@ -4965,7 +4966,7 @@
       <c r="AI27" s="17"/>
       <c r="AJ27" s="17"/>
       <c r="AK27" s="17"/>
-      <c r="AL27" s="17"/>
+      <c r="AL27" s="93"/>
       <c r="AM27" s="17"/>
       <c r="AN27" s="17"/>
       <c r="AO27" s="17"/>
@@ -4975,7 +4976,7 @@
       <c r="AS27" s="17"/>
       <c r="AT27" s="17"/>
       <c r="AU27" s="17"/>
-      <c r="AV27" s="17"/>
+      <c r="AV27" s="93"/>
       <c r="AW27" s="17"/>
       <c r="AX27" s="17"/>
       <c r="AY27" s="61"/>
@@ -5012,9 +5013,9 @@
       <c r="W28" s="17"/>
       <c r="X28" s="17"/>
       <c r="Y28" s="17"/>
-      <c r="Z28" s="132"/>
-      <c r="AA28" s="134"/>
-      <c r="AB28" s="134"/>
+      <c r="Z28" s="130"/>
+      <c r="AA28" s="132"/>
+      <c r="AB28" s="132"/>
       <c r="AC28" s="17"/>
       <c r="AD28" s="17"/>
       <c r="AE28" s="17"/>
@@ -5024,7 +5025,7 @@
       <c r="AI28" s="17"/>
       <c r="AJ28" s="17"/>
       <c r="AK28" s="17"/>
-      <c r="AL28" s="17"/>
+      <c r="AL28" s="93"/>
       <c r="AM28" s="17"/>
       <c r="AN28" s="17"/>
       <c r="AO28" s="17"/>
@@ -5034,7 +5035,7 @@
       <c r="AS28" s="17"/>
       <c r="AT28" s="17"/>
       <c r="AU28" s="17"/>
-      <c r="AV28" s="17"/>
+      <c r="AV28" s="93"/>
       <c r="AW28" s="17"/>
       <c r="AX28" s="17"/>
       <c r="AY28" s="61"/>
@@ -5071,9 +5072,9 @@
       <c r="W29" s="17"/>
       <c r="X29" s="17"/>
       <c r="Y29" s="17"/>
-      <c r="Z29" s="132"/>
-      <c r="AA29" s="134"/>
-      <c r="AB29" s="134"/>
+      <c r="Z29" s="130"/>
+      <c r="AA29" s="132"/>
+      <c r="AB29" s="132"/>
       <c r="AC29" s="17"/>
       <c r="AD29" s="17"/>
       <c r="AE29" s="17"/>
@@ -5083,7 +5084,7 @@
       <c r="AI29" s="17"/>
       <c r="AJ29" s="17"/>
       <c r="AK29" s="17"/>
-      <c r="AL29" s="17"/>
+      <c r="AL29" s="93"/>
       <c r="AM29" s="17"/>
       <c r="AN29" s="17"/>
       <c r="AO29" s="17"/>
@@ -5093,7 +5094,7 @@
       <c r="AS29" s="17"/>
       <c r="AT29" s="17"/>
       <c r="AU29" s="17"/>
-      <c r="AV29" s="17"/>
+      <c r="AV29" s="93"/>
       <c r="AW29" s="17"/>
       <c r="AX29" s="17"/>
       <c r="AY29" s="61"/>
@@ -5130,9 +5131,9 @@
       <c r="W30" s="17"/>
       <c r="X30" s="17"/>
       <c r="Y30" s="17"/>
-      <c r="Z30" s="132"/>
-      <c r="AA30" s="134"/>
-      <c r="AB30" s="134"/>
+      <c r="Z30" s="130"/>
+      <c r="AA30" s="132"/>
+      <c r="AB30" s="132"/>
       <c r="AC30" s="17"/>
       <c r="AD30" s="17"/>
       <c r="AE30" s="17"/>
@@ -5142,7 +5143,7 @@
       <c r="AI30" s="17"/>
       <c r="AJ30" s="17"/>
       <c r="AK30" s="17"/>
-      <c r="AL30" s="17"/>
+      <c r="AL30" s="93"/>
       <c r="AM30" s="17"/>
       <c r="AN30" s="17"/>
       <c r="AO30" s="17"/>
@@ -5152,7 +5153,7 @@
       <c r="AS30" s="17"/>
       <c r="AT30" s="17"/>
       <c r="AU30" s="17"/>
-      <c r="AV30" s="17"/>
+      <c r="AV30" s="93"/>
       <c r="AW30" s="17"/>
       <c r="AX30" s="17"/>
       <c r="AY30" s="61"/>
@@ -5189,9 +5190,9 @@
       <c r="W31" s="17"/>
       <c r="X31" s="17"/>
       <c r="Y31" s="17"/>
-      <c r="Z31" s="132"/>
-      <c r="AA31" s="134"/>
-      <c r="AB31" s="134"/>
+      <c r="Z31" s="130"/>
+      <c r="AA31" s="132"/>
+      <c r="AB31" s="132"/>
       <c r="AC31" s="17"/>
       <c r="AD31" s="17"/>
       <c r="AE31" s="17"/>
@@ -5201,7 +5202,7 @@
       <c r="AI31" s="17"/>
       <c r="AJ31" s="17"/>
       <c r="AK31" s="17"/>
-      <c r="AL31" s="17"/>
+      <c r="AL31" s="93"/>
       <c r="AM31" s="17"/>
       <c r="AN31" s="17"/>
       <c r="AO31" s="17"/>
@@ -5211,7 +5212,7 @@
       <c r="AS31" s="17"/>
       <c r="AT31" s="17"/>
       <c r="AU31" s="17"/>
-      <c r="AV31" s="17"/>
+      <c r="AV31" s="93"/>
       <c r="AW31" s="17"/>
       <c r="AX31" s="17"/>
       <c r="AY31" s="61"/>
@@ -5248,9 +5249,9 @@
       <c r="W32" s="17"/>
       <c r="X32" s="17"/>
       <c r="Y32" s="17"/>
-      <c r="Z32" s="132"/>
-      <c r="AA32" s="134"/>
-      <c r="AB32" s="134"/>
+      <c r="Z32" s="130"/>
+      <c r="AA32" s="132"/>
+      <c r="AB32" s="132"/>
       <c r="AC32" s="17"/>
       <c r="AD32" s="17"/>
       <c r="AE32" s="17"/>
@@ -5260,7 +5261,7 @@
       <c r="AI32" s="17"/>
       <c r="AJ32" s="17"/>
       <c r="AK32" s="17"/>
-      <c r="AL32" s="17"/>
+      <c r="AL32" s="93"/>
       <c r="AM32" s="17"/>
       <c r="AN32" s="17"/>
       <c r="AO32" s="17"/>
@@ -5270,7 +5271,7 @@
       <c r="AS32" s="17"/>
       <c r="AT32" s="17"/>
       <c r="AU32" s="17"/>
-      <c r="AV32" s="17"/>
+      <c r="AV32" s="93"/>
       <c r="AW32" s="17"/>
       <c r="AX32" s="17"/>
       <c r="AY32" s="61"/>
@@ -5307,9 +5308,9 @@
       <c r="W33" s="17"/>
       <c r="X33" s="17"/>
       <c r="Y33" s="17"/>
-      <c r="Z33" s="132"/>
-      <c r="AA33" s="134"/>
-      <c r="AB33" s="134"/>
+      <c r="Z33" s="130"/>
+      <c r="AA33" s="132"/>
+      <c r="AB33" s="132"/>
       <c r="AC33" s="17"/>
       <c r="AD33" s="17"/>
       <c r="AE33" s="17"/>
@@ -5319,7 +5320,7 @@
       <c r="AI33" s="17"/>
       <c r="AJ33" s="17"/>
       <c r="AK33" s="17"/>
-      <c r="AL33" s="17"/>
+      <c r="AL33" s="93"/>
       <c r="AM33" s="17"/>
       <c r="AN33" s="17"/>
       <c r="AO33" s="17"/>
@@ -5329,7 +5330,7 @@
       <c r="AS33" s="17"/>
       <c r="AT33" s="17"/>
       <c r="AU33" s="17"/>
-      <c r="AV33" s="17"/>
+      <c r="AV33" s="93"/>
       <c r="AW33" s="17"/>
       <c r="AX33" s="17"/>
       <c r="AY33" s="61"/>
@@ -5366,9 +5367,9 @@
       <c r="W34" s="17"/>
       <c r="X34" s="17"/>
       <c r="Y34" s="17"/>
-      <c r="Z34" s="132"/>
-      <c r="AA34" s="134"/>
-      <c r="AB34" s="134"/>
+      <c r="Z34" s="130"/>
+      <c r="AA34" s="132"/>
+      <c r="AB34" s="132"/>
       <c r="AC34" s="17"/>
       <c r="AD34" s="17"/>
       <c r="AE34" s="17"/>
@@ -5378,7 +5379,7 @@
       <c r="AI34" s="17"/>
       <c r="AJ34" s="17"/>
       <c r="AK34" s="17"/>
-      <c r="AL34" s="17"/>
+      <c r="AL34" s="93"/>
       <c r="AM34" s="17"/>
       <c r="AN34" s="17"/>
       <c r="AO34" s="17"/>
@@ -5388,7 +5389,7 @@
       <c r="AS34" s="17"/>
       <c r="AT34" s="17"/>
       <c r="AU34" s="17"/>
-      <c r="AV34" s="17"/>
+      <c r="AV34" s="93"/>
       <c r="AW34" s="17"/>
       <c r="AX34" s="17"/>
       <c r="AY34" s="61"/>
@@ -5425,9 +5426,9 @@
       <c r="W35" s="17"/>
       <c r="X35" s="17"/>
       <c r="Y35" s="17"/>
-      <c r="Z35" s="132"/>
-      <c r="AA35" s="134"/>
-      <c r="AB35" s="134"/>
+      <c r="Z35" s="130"/>
+      <c r="AA35" s="132"/>
+      <c r="AB35" s="132"/>
       <c r="AC35" s="17"/>
       <c r="AD35" s="17"/>
       <c r="AE35" s="17"/>
@@ -5437,7 +5438,7 @@
       <c r="AI35" s="17"/>
       <c r="AJ35" s="17"/>
       <c r="AK35" s="17"/>
-      <c r="AL35" s="17"/>
+      <c r="AL35" s="93"/>
       <c r="AM35" s="17"/>
       <c r="AN35" s="17"/>
       <c r="AO35" s="17"/>
@@ -5447,7 +5448,7 @@
       <c r="AS35" s="17"/>
       <c r="AT35" s="17"/>
       <c r="AU35" s="17"/>
-      <c r="AV35" s="17"/>
+      <c r="AV35" s="93"/>
       <c r="AW35" s="17"/>
       <c r="AX35" s="17"/>
       <c r="AY35" s="61"/>
@@ -5484,9 +5485,9 @@
       <c r="W36" s="17"/>
       <c r="X36" s="17"/>
       <c r="Y36" s="17"/>
-      <c r="Z36" s="132"/>
-      <c r="AA36" s="134"/>
-      <c r="AB36" s="134"/>
+      <c r="Z36" s="130"/>
+      <c r="AA36" s="132"/>
+      <c r="AB36" s="132"/>
       <c r="AC36" s="17"/>
       <c r="AD36" s="17"/>
       <c r="AE36" s="17"/>
@@ -5496,7 +5497,7 @@
       <c r="AI36" s="17"/>
       <c r="AJ36" s="17"/>
       <c r="AK36" s="17"/>
-      <c r="AL36" s="17"/>
+      <c r="AL36" s="93"/>
       <c r="AM36" s="17"/>
       <c r="AN36" s="17"/>
       <c r="AO36" s="17"/>
@@ -5506,7 +5507,7 @@
       <c r="AS36" s="17"/>
       <c r="AT36" s="17"/>
       <c r="AU36" s="17"/>
-      <c r="AV36" s="17"/>
+      <c r="AV36" s="93"/>
       <c r="AW36" s="17"/>
       <c r="AX36" s="17"/>
       <c r="AY36" s="61"/>
@@ -5543,9 +5544,9 @@
       <c r="W37" s="17"/>
       <c r="X37" s="17"/>
       <c r="Y37" s="17"/>
-      <c r="Z37" s="132"/>
-      <c r="AA37" s="134"/>
-      <c r="AB37" s="134"/>
+      <c r="Z37" s="130"/>
+      <c r="AA37" s="132"/>
+      <c r="AB37" s="132"/>
       <c r="AC37" s="17"/>
       <c r="AD37" s="17"/>
       <c r="AE37" s="17"/>
@@ -5555,7 +5556,7 @@
       <c r="AI37" s="17"/>
       <c r="AJ37" s="17"/>
       <c r="AK37" s="17"/>
-      <c r="AL37" s="17"/>
+      <c r="AL37" s="93"/>
       <c r="AM37" s="17"/>
       <c r="AN37" s="17"/>
       <c r="AO37" s="17"/>
@@ -5565,7 +5566,7 @@
       <c r="AS37" s="17"/>
       <c r="AT37" s="17"/>
       <c r="AU37" s="17"/>
-      <c r="AV37" s="17"/>
+      <c r="AV37" s="93"/>
       <c r="AW37" s="17"/>
       <c r="AX37" s="17"/>
       <c r="AY37" s="61"/>
@@ -5602,9 +5603,9 @@
       <c r="W38" s="17"/>
       <c r="X38" s="17"/>
       <c r="Y38" s="17"/>
-      <c r="Z38" s="132"/>
-      <c r="AA38" s="134"/>
-      <c r="AB38" s="134"/>
+      <c r="Z38" s="130"/>
+      <c r="AA38" s="132"/>
+      <c r="AB38" s="132"/>
       <c r="AC38" s="17"/>
       <c r="AD38" s="17"/>
       <c r="AE38" s="17"/>
@@ -5614,7 +5615,7 @@
       <c r="AI38" s="17"/>
       <c r="AJ38" s="17"/>
       <c r="AK38" s="17"/>
-      <c r="AL38" s="17"/>
+      <c r="AL38" s="93"/>
       <c r="AM38" s="17"/>
       <c r="AN38" s="17"/>
       <c r="AO38" s="17"/>
@@ -5624,7 +5625,7 @@
       <c r="AS38" s="17"/>
       <c r="AT38" s="17"/>
       <c r="AU38" s="17"/>
-      <c r="AV38" s="17"/>
+      <c r="AV38" s="93"/>
       <c r="AW38" s="17"/>
       <c r="AX38" s="17"/>
       <c r="AY38" s="61"/>
@@ -5661,9 +5662,9 @@
       <c r="W39" s="17"/>
       <c r="X39" s="17"/>
       <c r="Y39" s="17"/>
-      <c r="Z39" s="132"/>
-      <c r="AA39" s="134"/>
-      <c r="AB39" s="134"/>
+      <c r="Z39" s="130"/>
+      <c r="AA39" s="132"/>
+      <c r="AB39" s="132"/>
       <c r="AC39" s="17"/>
       <c r="AD39" s="17"/>
       <c r="AE39" s="17"/>
@@ -5673,7 +5674,7 @@
       <c r="AI39" s="17"/>
       <c r="AJ39" s="17"/>
       <c r="AK39" s="17"/>
-      <c r="AL39" s="17"/>
+      <c r="AL39" s="93"/>
       <c r="AM39" s="17"/>
       <c r="AN39" s="17"/>
       <c r="AO39" s="17"/>
@@ -5683,7 +5684,7 @@
       <c r="AS39" s="17"/>
       <c r="AT39" s="17"/>
       <c r="AU39" s="17"/>
-      <c r="AV39" s="17"/>
+      <c r="AV39" s="93"/>
       <c r="AW39" s="17"/>
       <c r="AX39" s="17"/>
       <c r="AY39" s="61"/>
@@ -5720,9 +5721,9 @@
       <c r="W40" s="17"/>
       <c r="X40" s="17"/>
       <c r="Y40" s="17"/>
-      <c r="Z40" s="132"/>
-      <c r="AA40" s="134"/>
-      <c r="AB40" s="134"/>
+      <c r="Z40" s="130"/>
+      <c r="AA40" s="132"/>
+      <c r="AB40" s="132"/>
       <c r="AC40" s="17"/>
       <c r="AD40" s="17"/>
       <c r="AE40" s="17"/>
@@ -5732,7 +5733,7 @@
       <c r="AI40" s="17"/>
       <c r="AJ40" s="17"/>
       <c r="AK40" s="17"/>
-      <c r="AL40" s="17"/>
+      <c r="AL40" s="93"/>
       <c r="AM40" s="17"/>
       <c r="AN40" s="17"/>
       <c r="AO40" s="17"/>
@@ -5742,7 +5743,7 @@
       <c r="AS40" s="17"/>
       <c r="AT40" s="17"/>
       <c r="AU40" s="17"/>
-      <c r="AV40" s="17"/>
+      <c r="AV40" s="93"/>
       <c r="AW40" s="17"/>
       <c r="AX40" s="17"/>
       <c r="AY40" s="61"/>
@@ -5779,9 +5780,9 @@
       <c r="W41" s="17"/>
       <c r="X41" s="17"/>
       <c r="Y41" s="17"/>
-      <c r="Z41" s="132"/>
-      <c r="AA41" s="134"/>
-      <c r="AB41" s="134"/>
+      <c r="Z41" s="130"/>
+      <c r="AA41" s="132"/>
+      <c r="AB41" s="132"/>
       <c r="AC41" s="17"/>
       <c r="AD41" s="17"/>
       <c r="AE41" s="17"/>
@@ -5791,7 +5792,7 @@
       <c r="AI41" s="17"/>
       <c r="AJ41" s="17"/>
       <c r="AK41" s="17"/>
-      <c r="AL41" s="17"/>
+      <c r="AL41" s="93"/>
       <c r="AM41" s="17"/>
       <c r="AN41" s="17"/>
       <c r="AO41" s="17"/>
@@ -5801,7 +5802,7 @@
       <c r="AS41" s="17"/>
       <c r="AT41" s="17"/>
       <c r="AU41" s="17"/>
-      <c r="AV41" s="17"/>
+      <c r="AV41" s="93"/>
       <c r="AW41" s="17"/>
       <c r="AX41" s="17"/>
       <c r="AY41" s="61"/>
@@ -5838,9 +5839,9 @@
       <c r="W42" s="17"/>
       <c r="X42" s="17"/>
       <c r="Y42" s="17"/>
-      <c r="Z42" s="132"/>
-      <c r="AA42" s="134"/>
-      <c r="AB42" s="134"/>
+      <c r="Z42" s="130"/>
+      <c r="AA42" s="132"/>
+      <c r="AB42" s="132"/>
       <c r="AC42" s="17"/>
       <c r="AD42" s="17"/>
       <c r="AE42" s="17"/>
@@ -5850,7 +5851,7 @@
       <c r="AI42" s="17"/>
       <c r="AJ42" s="17"/>
       <c r="AK42" s="17"/>
-      <c r="AL42" s="17"/>
+      <c r="AL42" s="93"/>
       <c r="AM42" s="17"/>
       <c r="AN42" s="17"/>
       <c r="AO42" s="17"/>
@@ -5860,7 +5861,7 @@
       <c r="AS42" s="17"/>
       <c r="AT42" s="17"/>
       <c r="AU42" s="17"/>
-      <c r="AV42" s="17"/>
+      <c r="AV42" s="93"/>
       <c r="AW42" s="17"/>
       <c r="AX42" s="17"/>
       <c r="AY42" s="61"/>
@@ -5897,9 +5898,9 @@
       <c r="W43" s="17"/>
       <c r="X43" s="17"/>
       <c r="Y43" s="17"/>
-      <c r="Z43" s="132"/>
-      <c r="AA43" s="134"/>
-      <c r="AB43" s="134"/>
+      <c r="Z43" s="130"/>
+      <c r="AA43" s="132"/>
+      <c r="AB43" s="132"/>
       <c r="AC43" s="17"/>
       <c r="AD43" s="17"/>
       <c r="AE43" s="17"/>
@@ -5909,7 +5910,7 @@
       <c r="AI43" s="17"/>
       <c r="AJ43" s="17"/>
       <c r="AK43" s="17"/>
-      <c r="AL43" s="17"/>
+      <c r="AL43" s="93"/>
       <c r="AM43" s="17"/>
       <c r="AN43" s="17"/>
       <c r="AO43" s="17"/>
@@ -5919,7 +5920,7 @@
       <c r="AS43" s="17"/>
       <c r="AT43" s="17"/>
       <c r="AU43" s="17"/>
-      <c r="AV43" s="17"/>
+      <c r="AV43" s="93"/>
       <c r="AW43" s="17"/>
       <c r="AX43" s="17"/>
       <c r="AY43" s="61"/>
@@ -5956,9 +5957,9 @@
       <c r="W44" s="17"/>
       <c r="X44" s="17"/>
       <c r="Y44" s="17"/>
-      <c r="Z44" s="132"/>
-      <c r="AA44" s="134"/>
-      <c r="AB44" s="134"/>
+      <c r="Z44" s="130"/>
+      <c r="AA44" s="132"/>
+      <c r="AB44" s="132"/>
       <c r="AC44" s="17"/>
       <c r="AD44" s="17"/>
       <c r="AE44" s="17"/>
@@ -5968,7 +5969,7 @@
       <c r="AI44" s="17"/>
       <c r="AJ44" s="17"/>
       <c r="AK44" s="17"/>
-      <c r="AL44" s="17"/>
+      <c r="AL44" s="93"/>
       <c r="AM44" s="17"/>
       <c r="AN44" s="17"/>
       <c r="AO44" s="17"/>
@@ -5978,7 +5979,7 @@
       <c r="AS44" s="17"/>
       <c r="AT44" s="17"/>
       <c r="AU44" s="17"/>
-      <c r="AV44" s="17"/>
+      <c r="AV44" s="93"/>
       <c r="AW44" s="17"/>
       <c r="AX44" s="17"/>
       <c r="AY44" s="61"/>
@@ -6015,9 +6016,9 @@
       <c r="W45" s="17"/>
       <c r="X45" s="17"/>
       <c r="Y45" s="17"/>
-      <c r="Z45" s="132"/>
-      <c r="AA45" s="134"/>
-      <c r="AB45" s="134"/>
+      <c r="Z45" s="130"/>
+      <c r="AA45" s="132"/>
+      <c r="AB45" s="132"/>
       <c r="AC45" s="17"/>
       <c r="AD45" s="17"/>
       <c r="AE45" s="17"/>
@@ -6027,7 +6028,7 @@
       <c r="AI45" s="17"/>
       <c r="AJ45" s="17"/>
       <c r="AK45" s="17"/>
-      <c r="AL45" s="17"/>
+      <c r="AL45" s="93"/>
       <c r="AM45" s="17"/>
       <c r="AN45" s="17"/>
       <c r="AO45" s="17"/>
@@ -6037,7 +6038,7 @@
       <c r="AS45" s="17"/>
       <c r="AT45" s="17"/>
       <c r="AU45" s="17"/>
-      <c r="AV45" s="17"/>
+      <c r="AV45" s="93"/>
       <c r="AW45" s="17"/>
       <c r="AX45" s="17"/>
       <c r="AY45" s="61"/>
@@ -6074,9 +6075,9 @@
       <c r="W46" s="17"/>
       <c r="X46" s="17"/>
       <c r="Y46" s="17"/>
-      <c r="Z46" s="132"/>
-      <c r="AA46" s="134"/>
-      <c r="AB46" s="134"/>
+      <c r="Z46" s="130"/>
+      <c r="AA46" s="132"/>
+      <c r="AB46" s="132"/>
       <c r="AC46" s="17"/>
       <c r="AD46" s="17"/>
       <c r="AE46" s="17"/>
@@ -6086,7 +6087,7 @@
       <c r="AI46" s="17"/>
       <c r="AJ46" s="17"/>
       <c r="AK46" s="17"/>
-      <c r="AL46" s="17"/>
+      <c r="AL46" s="93"/>
       <c r="AM46" s="17"/>
       <c r="AN46" s="17"/>
       <c r="AO46" s="17"/>
@@ -6096,7 +6097,7 @@
       <c r="AS46" s="17"/>
       <c r="AT46" s="17"/>
       <c r="AU46" s="17"/>
-      <c r="AV46" s="17"/>
+      <c r="AV46" s="93"/>
       <c r="AW46" s="17"/>
       <c r="AX46" s="17"/>
       <c r="AY46" s="61"/>
@@ -6133,9 +6134,9 @@
       <c r="W47" s="17"/>
       <c r="X47" s="17"/>
       <c r="Y47" s="17"/>
-      <c r="Z47" s="132"/>
-      <c r="AA47" s="134"/>
-      <c r="AB47" s="134"/>
+      <c r="Z47" s="130"/>
+      <c r="AA47" s="132"/>
+      <c r="AB47" s="132"/>
       <c r="AC47" s="17"/>
       <c r="AD47" s="17"/>
       <c r="AE47" s="17"/>
@@ -6145,7 +6146,7 @@
       <c r="AI47" s="17"/>
       <c r="AJ47" s="17"/>
       <c r="AK47" s="17"/>
-      <c r="AL47" s="17"/>
+      <c r="AL47" s="93"/>
       <c r="AM47" s="17"/>
       <c r="AN47" s="17"/>
       <c r="AO47" s="17"/>
@@ -6155,7 +6156,7 @@
       <c r="AS47" s="17"/>
       <c r="AT47" s="17"/>
       <c r="AU47" s="17"/>
-      <c r="AV47" s="17"/>
+      <c r="AV47" s="93"/>
       <c r="AW47" s="17"/>
       <c r="AX47" s="17"/>
       <c r="AY47" s="61"/>
@@ -6192,9 +6193,9 @@
       <c r="W48" s="17"/>
       <c r="X48" s="17"/>
       <c r="Y48" s="17"/>
-      <c r="Z48" s="132"/>
-      <c r="AA48" s="134"/>
-      <c r="AB48" s="134"/>
+      <c r="Z48" s="130"/>
+      <c r="AA48" s="132"/>
+      <c r="AB48" s="132"/>
       <c r="AC48" s="17"/>
       <c r="AD48" s="17"/>
       <c r="AE48" s="17"/>
@@ -6204,7 +6205,7 @@
       <c r="AI48" s="17"/>
       <c r="AJ48" s="17"/>
       <c r="AK48" s="17"/>
-      <c r="AL48" s="17"/>
+      <c r="AL48" s="93"/>
       <c r="AM48" s="17"/>
       <c r="AN48" s="17"/>
       <c r="AO48" s="17"/>
@@ -6214,7 +6215,7 @@
       <c r="AS48" s="17"/>
       <c r="AT48" s="17"/>
       <c r="AU48" s="17"/>
-      <c r="AV48" s="17"/>
+      <c r="AV48" s="93"/>
       <c r="AW48" s="17"/>
       <c r="AX48" s="17"/>
       <c r="AY48" s="61"/>
@@ -6251,9 +6252,9 @@
       <c r="W49" s="17"/>
       <c r="X49" s="17"/>
       <c r="Y49" s="17"/>
-      <c r="Z49" s="132"/>
-      <c r="AA49" s="134"/>
-      <c r="AB49" s="134"/>
+      <c r="Z49" s="130"/>
+      <c r="AA49" s="132"/>
+      <c r="AB49" s="132"/>
       <c r="AC49" s="17"/>
       <c r="AD49" s="17"/>
       <c r="AE49" s="17"/>
@@ -6263,7 +6264,7 @@
       <c r="AI49" s="17"/>
       <c r="AJ49" s="17"/>
       <c r="AK49" s="17"/>
-      <c r="AL49" s="17"/>
+      <c r="AL49" s="93"/>
       <c r="AM49" s="17"/>
       <c r="AN49" s="17"/>
       <c r="AO49" s="17"/>
@@ -6273,7 +6274,7 @@
       <c r="AS49" s="17"/>
       <c r="AT49" s="17"/>
       <c r="AU49" s="17"/>
-      <c r="AV49" s="17"/>
+      <c r="AV49" s="93"/>
       <c r="AW49" s="17"/>
       <c r="AX49" s="17"/>
       <c r="AY49" s="61"/>
@@ -6310,9 +6311,9 @@
       <c r="W50" s="17"/>
       <c r="X50" s="17"/>
       <c r="Y50" s="17"/>
-      <c r="Z50" s="132"/>
-      <c r="AA50" s="134"/>
-      <c r="AB50" s="134"/>
+      <c r="Z50" s="130"/>
+      <c r="AA50" s="132"/>
+      <c r="AB50" s="132"/>
       <c r="AC50" s="17"/>
       <c r="AD50" s="17"/>
       <c r="AE50" s="17"/>
@@ -6322,7 +6323,7 @@
       <c r="AI50" s="17"/>
       <c r="AJ50" s="17"/>
       <c r="AK50" s="17"/>
-      <c r="AL50" s="17"/>
+      <c r="AL50" s="93"/>
       <c r="AM50" s="17"/>
       <c r="AN50" s="17"/>
       <c r="AO50" s="17"/>
@@ -6332,7 +6333,7 @@
       <c r="AS50" s="17"/>
       <c r="AT50" s="17"/>
       <c r="AU50" s="17"/>
-      <c r="AV50" s="17"/>
+      <c r="AV50" s="93"/>
       <c r="AW50" s="17"/>
       <c r="AX50" s="17"/>
       <c r="AY50" s="61"/>
@@ -6369,9 +6370,9 @@
       <c r="W51" s="17"/>
       <c r="X51" s="17"/>
       <c r="Y51" s="17"/>
-      <c r="Z51" s="132"/>
-      <c r="AA51" s="134"/>
-      <c r="AB51" s="134"/>
+      <c r="Z51" s="130"/>
+      <c r="AA51" s="132"/>
+      <c r="AB51" s="132"/>
       <c r="AC51" s="17"/>
       <c r="AD51" s="17"/>
       <c r="AE51" s="17"/>
@@ -6381,7 +6382,7 @@
       <c r="AI51" s="17"/>
       <c r="AJ51" s="17"/>
       <c r="AK51" s="17"/>
-      <c r="AL51" s="17"/>
+      <c r="AL51" s="93"/>
       <c r="AM51" s="17"/>
       <c r="AN51" s="17"/>
       <c r="AO51" s="17"/>
@@ -6391,7 +6392,7 @@
       <c r="AS51" s="17"/>
       <c r="AT51" s="17"/>
       <c r="AU51" s="17"/>
-      <c r="AV51" s="17"/>
+      <c r="AV51" s="93"/>
       <c r="AW51" s="17"/>
       <c r="AX51" s="17"/>
       <c r="AY51" s="61"/>
@@ -6428,9 +6429,9 @@
       <c r="W52" s="17"/>
       <c r="X52" s="17"/>
       <c r="Y52" s="17"/>
-      <c r="Z52" s="132"/>
-      <c r="AA52" s="134"/>
-      <c r="AB52" s="134"/>
+      <c r="Z52" s="130"/>
+      <c r="AA52" s="132"/>
+      <c r="AB52" s="132"/>
       <c r="AC52" s="17"/>
       <c r="AD52" s="17"/>
       <c r="AE52" s="17"/>
@@ -6440,7 +6441,7 @@
       <c r="AI52" s="17"/>
       <c r="AJ52" s="17"/>
       <c r="AK52" s="17"/>
-      <c r="AL52" s="17"/>
+      <c r="AL52" s="93"/>
       <c r="AM52" s="17"/>
       <c r="AN52" s="17"/>
       <c r="AO52" s="17"/>
@@ -6450,7 +6451,7 @@
       <c r="AS52" s="17"/>
       <c r="AT52" s="17"/>
       <c r="AU52" s="17"/>
-      <c r="AV52" s="17"/>
+      <c r="AV52" s="93"/>
       <c r="AW52" s="17"/>
       <c r="AX52" s="17"/>
       <c r="AY52" s="61"/>
@@ -6487,9 +6488,9 @@
       <c r="W53" s="17"/>
       <c r="X53" s="17"/>
       <c r="Y53" s="17"/>
-      <c r="Z53" s="132"/>
-      <c r="AA53" s="134"/>
-      <c r="AB53" s="134"/>
+      <c r="Z53" s="130"/>
+      <c r="AA53" s="132"/>
+      <c r="AB53" s="132"/>
       <c r="AC53" s="17"/>
       <c r="AD53" s="17"/>
       <c r="AE53" s="17"/>
@@ -6499,7 +6500,7 @@
       <c r="AI53" s="17"/>
       <c r="AJ53" s="17"/>
       <c r="AK53" s="17"/>
-      <c r="AL53" s="17"/>
+      <c r="AL53" s="93"/>
       <c r="AM53" s="17"/>
       <c r="AN53" s="17"/>
       <c r="AO53" s="17"/>
@@ -6509,7 +6510,7 @@
       <c r="AS53" s="17"/>
       <c r="AT53" s="17"/>
       <c r="AU53" s="17"/>
-      <c r="AV53" s="17"/>
+      <c r="AV53" s="93"/>
       <c r="AW53" s="17"/>
       <c r="AX53" s="17"/>
       <c r="AY53" s="61"/>
@@ -6546,9 +6547,9 @@
       <c r="W54" s="17"/>
       <c r="X54" s="17"/>
       <c r="Y54" s="17"/>
-      <c r="Z54" s="132"/>
-      <c r="AA54" s="134"/>
-      <c r="AB54" s="134"/>
+      <c r="Z54" s="130"/>
+      <c r="AA54" s="132"/>
+      <c r="AB54" s="132"/>
       <c r="AC54" s="17"/>
       <c r="AD54" s="17"/>
       <c r="AE54" s="17"/>
@@ -6558,7 +6559,7 @@
       <c r="AI54" s="17"/>
       <c r="AJ54" s="17"/>
       <c r="AK54" s="17"/>
-      <c r="AL54" s="17"/>
+      <c r="AL54" s="93"/>
       <c r="AM54" s="17"/>
       <c r="AN54" s="17"/>
       <c r="AO54" s="17"/>
@@ -6568,7 +6569,7 @@
       <c r="AS54" s="17"/>
       <c r="AT54" s="17"/>
       <c r="AU54" s="17"/>
-      <c r="AV54" s="17"/>
+      <c r="AV54" s="93"/>
       <c r="AW54" s="17"/>
       <c r="AX54" s="17"/>
       <c r="AY54" s="61"/>
@@ -6605,9 +6606,9 @@
       <c r="W55" s="17"/>
       <c r="X55" s="17"/>
       <c r="Y55" s="17"/>
-      <c r="Z55" s="132"/>
-      <c r="AA55" s="134"/>
-      <c r="AB55" s="134"/>
+      <c r="Z55" s="130"/>
+      <c r="AA55" s="132"/>
+      <c r="AB55" s="132"/>
       <c r="AC55" s="17"/>
       <c r="AD55" s="17"/>
       <c r="AE55" s="17"/>
@@ -6617,7 +6618,7 @@
       <c r="AI55" s="17"/>
       <c r="AJ55" s="17"/>
       <c r="AK55" s="17"/>
-      <c r="AL55" s="17"/>
+      <c r="AL55" s="93"/>
       <c r="AM55" s="17"/>
       <c r="AN55" s="17"/>
       <c r="AO55" s="17"/>
@@ -6627,7 +6628,7 @@
       <c r="AS55" s="17"/>
       <c r="AT55" s="17"/>
       <c r="AU55" s="17"/>
-      <c r="AV55" s="17"/>
+      <c r="AV55" s="93"/>
       <c r="AW55" s="17"/>
       <c r="AX55" s="17"/>
       <c r="AY55" s="61"/>
@@ -6664,9 +6665,9 @@
       <c r="W56" s="17"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="17"/>
-      <c r="Z56" s="132"/>
-      <c r="AA56" s="134"/>
-      <c r="AB56" s="134"/>
+      <c r="Z56" s="130"/>
+      <c r="AA56" s="132"/>
+      <c r="AB56" s="132"/>
       <c r="AC56" s="17"/>
       <c r="AD56" s="17"/>
       <c r="AE56" s="17"/>
@@ -6676,7 +6677,7 @@
       <c r="AI56" s="17"/>
       <c r="AJ56" s="17"/>
       <c r="AK56" s="17"/>
-      <c r="AL56" s="17"/>
+      <c r="AL56" s="93"/>
       <c r="AM56" s="17"/>
       <c r="AN56" s="17"/>
       <c r="AO56" s="17"/>
@@ -6686,7 +6687,7 @@
       <c r="AS56" s="17"/>
       <c r="AT56" s="17"/>
       <c r="AU56" s="17"/>
-      <c r="AV56" s="17"/>
+      <c r="AV56" s="93"/>
       <c r="AW56" s="17"/>
       <c r="AX56" s="17"/>
       <c r="AY56" s="61"/>
@@ -6723,9 +6724,9 @@
       <c r="W57" s="17"/>
       <c r="X57" s="17"/>
       <c r="Y57" s="17"/>
-      <c r="Z57" s="132"/>
-      <c r="AA57" s="134"/>
-      <c r="AB57" s="134"/>
+      <c r="Z57" s="130"/>
+      <c r="AA57" s="132"/>
+      <c r="AB57" s="132"/>
       <c r="AC57" s="17"/>
       <c r="AD57" s="17"/>
       <c r="AE57" s="17"/>
@@ -6735,7 +6736,7 @@
       <c r="AI57" s="17"/>
       <c r="AJ57" s="17"/>
       <c r="AK57" s="17"/>
-      <c r="AL57" s="17"/>
+      <c r="AL57" s="93"/>
       <c r="AM57" s="17"/>
       <c r="AN57" s="17"/>
       <c r="AO57" s="17"/>
@@ -6745,7 +6746,7 @@
       <c r="AS57" s="17"/>
       <c r="AT57" s="17"/>
       <c r="AU57" s="17"/>
-      <c r="AV57" s="17"/>
+      <c r="AV57" s="93"/>
       <c r="AW57" s="17"/>
       <c r="AX57" s="17"/>
       <c r="AY57" s="61"/>
@@ -6782,9 +6783,9 @@
       <c r="W58" s="17"/>
       <c r="X58" s="17"/>
       <c r="Y58" s="17"/>
-      <c r="Z58" s="132"/>
-      <c r="AA58" s="134"/>
-      <c r="AB58" s="134"/>
+      <c r="Z58" s="130"/>
+      <c r="AA58" s="132"/>
+      <c r="AB58" s="132"/>
       <c r="AC58" s="17"/>
       <c r="AD58" s="17"/>
       <c r="AE58" s="17"/>
@@ -6794,7 +6795,7 @@
       <c r="AI58" s="17"/>
       <c r="AJ58" s="17"/>
       <c r="AK58" s="17"/>
-      <c r="AL58" s="17"/>
+      <c r="AL58" s="93"/>
       <c r="AM58" s="17"/>
       <c r="AN58" s="17"/>
       <c r="AO58" s="17"/>
@@ -6804,7 +6805,7 @@
       <c r="AS58" s="17"/>
       <c r="AT58" s="17"/>
       <c r="AU58" s="17"/>
-      <c r="AV58" s="17"/>
+      <c r="AV58" s="93"/>
       <c r="AW58" s="17"/>
       <c r="AX58" s="17"/>
       <c r="AY58" s="61"/>
@@ -6841,9 +6842,9 @@
       <c r="W59" s="17"/>
       <c r="X59" s="17"/>
       <c r="Y59" s="17"/>
-      <c r="Z59" s="132"/>
-      <c r="AA59" s="134"/>
-      <c r="AB59" s="134"/>
+      <c r="Z59" s="130"/>
+      <c r="AA59" s="132"/>
+      <c r="AB59" s="132"/>
       <c r="AC59" s="17"/>
       <c r="AD59" s="17"/>
       <c r="AE59" s="17"/>
@@ -6853,7 +6854,7 @@
       <c r="AI59" s="17"/>
       <c r="AJ59" s="17"/>
       <c r="AK59" s="17"/>
-      <c r="AL59" s="17"/>
+      <c r="AL59" s="93"/>
       <c r="AM59" s="17"/>
       <c r="AN59" s="17"/>
       <c r="AO59" s="17"/>
@@ -6863,7 +6864,7 @@
       <c r="AS59" s="17"/>
       <c r="AT59" s="17"/>
       <c r="AU59" s="17"/>
-      <c r="AV59" s="17"/>
+      <c r="AV59" s="93"/>
       <c r="AW59" s="17"/>
       <c r="AX59" s="17"/>
       <c r="AY59" s="61"/>
@@ -6900,9 +6901,9 @@
       <c r="W60" s="17"/>
       <c r="X60" s="17"/>
       <c r="Y60" s="17"/>
-      <c r="Z60" s="132"/>
-      <c r="AA60" s="134"/>
-      <c r="AB60" s="134"/>
+      <c r="Z60" s="130"/>
+      <c r="AA60" s="132"/>
+      <c r="AB60" s="132"/>
       <c r="AC60" s="17"/>
       <c r="AD60" s="17"/>
       <c r="AE60" s="17"/>
@@ -6912,7 +6913,7 @@
       <c r="AI60" s="17"/>
       <c r="AJ60" s="17"/>
       <c r="AK60" s="17"/>
-      <c r="AL60" s="17"/>
+      <c r="AL60" s="93"/>
       <c r="AM60" s="17"/>
       <c r="AN60" s="17"/>
       <c r="AO60" s="17"/>
@@ -6922,7 +6923,7 @@
       <c r="AS60" s="17"/>
       <c r="AT60" s="17"/>
       <c r="AU60" s="17"/>
-      <c r="AV60" s="17"/>
+      <c r="AV60" s="93"/>
       <c r="AW60" s="17"/>
       <c r="AX60" s="17"/>
       <c r="AY60" s="61"/>
@@ -6959,9 +6960,9 @@
       <c r="W61" s="17"/>
       <c r="X61" s="17"/>
       <c r="Y61" s="17"/>
-      <c r="Z61" s="132"/>
-      <c r="AA61" s="134"/>
-      <c r="AB61" s="134"/>
+      <c r="Z61" s="130"/>
+      <c r="AA61" s="132"/>
+      <c r="AB61" s="132"/>
       <c r="AC61" s="17"/>
       <c r="AD61" s="17"/>
       <c r="AE61" s="17"/>
@@ -6971,7 +6972,7 @@
       <c r="AI61" s="17"/>
       <c r="AJ61" s="17"/>
       <c r="AK61" s="17"/>
-      <c r="AL61" s="17"/>
+      <c r="AL61" s="93"/>
       <c r="AM61" s="17"/>
       <c r="AN61" s="17"/>
       <c r="AO61" s="17"/>
@@ -6981,7 +6982,7 @@
       <c r="AS61" s="17"/>
       <c r="AT61" s="17"/>
       <c r="AU61" s="17"/>
-      <c r="AV61" s="17"/>
+      <c r="AV61" s="93"/>
       <c r="AW61" s="17"/>
       <c r="AX61" s="17"/>
       <c r="AY61" s="61"/>
@@ -7018,9 +7019,9 @@
       <c r="W62" s="17"/>
       <c r="X62" s="17"/>
       <c r="Y62" s="17"/>
-      <c r="Z62" s="132"/>
-      <c r="AA62" s="134"/>
-      <c r="AB62" s="134"/>
+      <c r="Z62" s="130"/>
+      <c r="AA62" s="132"/>
+      <c r="AB62" s="132"/>
       <c r="AC62" s="17"/>
       <c r="AD62" s="17"/>
       <c r="AE62" s="17"/>
@@ -7030,7 +7031,7 @@
       <c r="AI62" s="17"/>
       <c r="AJ62" s="17"/>
       <c r="AK62" s="17"/>
-      <c r="AL62" s="17"/>
+      <c r="AL62" s="93"/>
       <c r="AM62" s="17"/>
       <c r="AN62" s="17"/>
       <c r="AO62" s="17"/>
@@ -7040,7 +7041,7 @@
       <c r="AS62" s="17"/>
       <c r="AT62" s="17"/>
       <c r="AU62" s="17"/>
-      <c r="AV62" s="17"/>
+      <c r="AV62" s="93"/>
       <c r="AW62" s="17"/>
       <c r="AX62" s="17"/>
       <c r="AY62" s="61"/>
@@ -7077,9 +7078,9 @@
       <c r="W63" s="17"/>
       <c r="X63" s="17"/>
       <c r="Y63" s="17"/>
-      <c r="Z63" s="132"/>
-      <c r="AA63" s="134"/>
-      <c r="AB63" s="134"/>
+      <c r="Z63" s="130"/>
+      <c r="AA63" s="132"/>
+      <c r="AB63" s="132"/>
       <c r="AC63" s="17"/>
       <c r="AD63" s="17"/>
       <c r="AE63" s="17"/>
@@ -7089,7 +7090,7 @@
       <c r="AI63" s="17"/>
       <c r="AJ63" s="17"/>
       <c r="AK63" s="17"/>
-      <c r="AL63" s="17"/>
+      <c r="AL63" s="93"/>
       <c r="AM63" s="17"/>
       <c r="AN63" s="17"/>
       <c r="AO63" s="17"/>
@@ -7099,7 +7100,7 @@
       <c r="AS63" s="17"/>
       <c r="AT63" s="17"/>
       <c r="AU63" s="17"/>
-      <c r="AV63" s="17"/>
+      <c r="AV63" s="93"/>
       <c r="AW63" s="17"/>
       <c r="AX63" s="17"/>
       <c r="AY63" s="61"/>
@@ -7136,9 +7137,9 @@
       <c r="W64" s="17"/>
       <c r="X64" s="17"/>
       <c r="Y64" s="17"/>
-      <c r="Z64" s="132"/>
-      <c r="AA64" s="134"/>
-      <c r="AB64" s="134"/>
+      <c r="Z64" s="130"/>
+      <c r="AA64" s="132"/>
+      <c r="AB64" s="132"/>
       <c r="AC64" s="17"/>
       <c r="AD64" s="17"/>
       <c r="AE64" s="17"/>
@@ -7148,7 +7149,7 @@
       <c r="AI64" s="17"/>
       <c r="AJ64" s="17"/>
       <c r="AK64" s="17"/>
-      <c r="AL64" s="17"/>
+      <c r="AL64" s="93"/>
       <c r="AM64" s="17"/>
       <c r="AN64" s="17"/>
       <c r="AO64" s="17"/>
@@ -7158,7 +7159,7 @@
       <c r="AS64" s="17"/>
       <c r="AT64" s="17"/>
       <c r="AU64" s="17"/>
-      <c r="AV64" s="17"/>
+      <c r="AV64" s="93"/>
       <c r="AW64" s="17"/>
       <c r="AX64" s="17"/>
       <c r="AY64" s="61"/>
@@ -7195,9 +7196,9 @@
       <c r="W65" s="17"/>
       <c r="X65" s="17"/>
       <c r="Y65" s="17"/>
-      <c r="Z65" s="132"/>
-      <c r="AA65" s="134"/>
-      <c r="AB65" s="134"/>
+      <c r="Z65" s="130"/>
+      <c r="AA65" s="132"/>
+      <c r="AB65" s="132"/>
       <c r="AC65" s="17"/>
       <c r="AD65" s="17"/>
       <c r="AE65" s="17"/>
@@ -7207,7 +7208,7 @@
       <c r="AI65" s="17"/>
       <c r="AJ65" s="17"/>
       <c r="AK65" s="17"/>
-      <c r="AL65" s="17"/>
+      <c r="AL65" s="93"/>
       <c r="AM65" s="17"/>
       <c r="AN65" s="17"/>
       <c r="AO65" s="17"/>
@@ -7217,7 +7218,7 @@
       <c r="AS65" s="17"/>
       <c r="AT65" s="17"/>
       <c r="AU65" s="17"/>
-      <c r="AV65" s="17"/>
+      <c r="AV65" s="93"/>
       <c r="AW65" s="17"/>
       <c r="AX65" s="17"/>
       <c r="AY65" s="61"/>
@@ -7254,9 +7255,9 @@
       <c r="W66" s="17"/>
       <c r="X66" s="17"/>
       <c r="Y66" s="17"/>
-      <c r="Z66" s="132"/>
-      <c r="AA66" s="134"/>
-      <c r="AB66" s="134"/>
+      <c r="Z66" s="130"/>
+      <c r="AA66" s="132"/>
+      <c r="AB66" s="132"/>
       <c r="AC66" s="17"/>
       <c r="AD66" s="17"/>
       <c r="AE66" s="17"/>
@@ -7266,7 +7267,7 @@
       <c r="AI66" s="17"/>
       <c r="AJ66" s="17"/>
       <c r="AK66" s="17"/>
-      <c r="AL66" s="17"/>
+      <c r="AL66" s="93"/>
       <c r="AM66" s="17"/>
       <c r="AN66" s="17"/>
       <c r="AO66" s="17"/>
@@ -7276,7 +7277,7 @@
       <c r="AS66" s="17"/>
       <c r="AT66" s="17"/>
       <c r="AU66" s="17"/>
-      <c r="AV66" s="17"/>
+      <c r="AV66" s="93"/>
       <c r="AW66" s="17"/>
       <c r="AX66" s="17"/>
       <c r="AY66" s="61"/>
@@ -7313,9 +7314,9 @@
       <c r="W67" s="17"/>
       <c r="X67" s="17"/>
       <c r="Y67" s="17"/>
-      <c r="Z67" s="132"/>
-      <c r="AA67" s="134"/>
-      <c r="AB67" s="134"/>
+      <c r="Z67" s="130"/>
+      <c r="AA67" s="132"/>
+      <c r="AB67" s="132"/>
       <c r="AC67" s="17"/>
       <c r="AD67" s="17"/>
       <c r="AE67" s="17"/>
@@ -7325,7 +7326,7 @@
       <c r="AI67" s="17"/>
       <c r="AJ67" s="17"/>
       <c r="AK67" s="17"/>
-      <c r="AL67" s="17"/>
+      <c r="AL67" s="93"/>
       <c r="AM67" s="17"/>
       <c r="AN67" s="17"/>
       <c r="AO67" s="17"/>
@@ -7335,7 +7336,7 @@
       <c r="AS67" s="17"/>
       <c r="AT67" s="17"/>
       <c r="AU67" s="17"/>
-      <c r="AV67" s="17"/>
+      <c r="AV67" s="93"/>
       <c r="AW67" s="17"/>
       <c r="AX67" s="17"/>
       <c r="AY67" s="61"/>
@@ -7372,9 +7373,9 @@
       <c r="W68" s="17"/>
       <c r="X68" s="17"/>
       <c r="Y68" s="17"/>
-      <c r="Z68" s="132"/>
-      <c r="AA68" s="134"/>
-      <c r="AB68" s="134"/>
+      <c r="Z68" s="130"/>
+      <c r="AA68" s="132"/>
+      <c r="AB68" s="132"/>
       <c r="AC68" s="17"/>
       <c r="AD68" s="17"/>
       <c r="AE68" s="17"/>
@@ -7384,7 +7385,7 @@
       <c r="AI68" s="17"/>
       <c r="AJ68" s="17"/>
       <c r="AK68" s="17"/>
-      <c r="AL68" s="17"/>
+      <c r="AL68" s="93"/>
       <c r="AM68" s="17"/>
       <c r="AN68" s="17"/>
       <c r="AO68" s="17"/>
@@ -7394,7 +7395,7 @@
       <c r="AS68" s="17"/>
       <c r="AT68" s="17"/>
       <c r="AU68" s="17"/>
-      <c r="AV68" s="17"/>
+      <c r="AV68" s="93"/>
       <c r="AW68" s="17"/>
       <c r="AX68" s="17"/>
       <c r="AY68" s="61"/>
@@ -7431,9 +7432,9 @@
       <c r="W69" s="17"/>
       <c r="X69" s="17"/>
       <c r="Y69" s="17"/>
-      <c r="Z69" s="132"/>
-      <c r="AA69" s="134"/>
-      <c r="AB69" s="134"/>
+      <c r="Z69" s="130"/>
+      <c r="AA69" s="132"/>
+      <c r="AB69" s="132"/>
       <c r="AC69" s="17"/>
       <c r="AD69" s="17"/>
       <c r="AE69" s="17"/>
@@ -7443,7 +7444,7 @@
       <c r="AI69" s="17"/>
       <c r="AJ69" s="17"/>
       <c r="AK69" s="17"/>
-      <c r="AL69" s="17"/>
+      <c r="AL69" s="93"/>
       <c r="AM69" s="17"/>
       <c r="AN69" s="17"/>
       <c r="AO69" s="17"/>
@@ -7453,7 +7454,7 @@
       <c r="AS69" s="17"/>
       <c r="AT69" s="17"/>
       <c r="AU69" s="17"/>
-      <c r="AV69" s="17"/>
+      <c r="AV69" s="93"/>
       <c r="AW69" s="17"/>
       <c r="AX69" s="17"/>
       <c r="AY69" s="61"/>
@@ -7490,9 +7491,9 @@
       <c r="W70" s="17"/>
       <c r="X70" s="17"/>
       <c r="Y70" s="17"/>
-      <c r="Z70" s="132"/>
-      <c r="AA70" s="134"/>
-      <c r="AB70" s="134"/>
+      <c r="Z70" s="130"/>
+      <c r="AA70" s="132"/>
+      <c r="AB70" s="132"/>
       <c r="AC70" s="17"/>
       <c r="AD70" s="17"/>
       <c r="AE70" s="17"/>
@@ -7502,7 +7503,7 @@
       <c r="AI70" s="17"/>
       <c r="AJ70" s="17"/>
       <c r="AK70" s="17"/>
-      <c r="AL70" s="17"/>
+      <c r="AL70" s="93"/>
       <c r="AM70" s="17"/>
       <c r="AN70" s="17"/>
       <c r="AO70" s="17"/>
@@ -7512,7 +7513,7 @@
       <c r="AS70" s="17"/>
       <c r="AT70" s="17"/>
       <c r="AU70" s="17"/>
-      <c r="AV70" s="17"/>
+      <c r="AV70" s="93"/>
       <c r="AW70" s="17"/>
       <c r="AX70" s="17"/>
       <c r="AY70" s="61"/>
@@ -7549,9 +7550,9 @@
       <c r="W71" s="17"/>
       <c r="X71" s="17"/>
       <c r="Y71" s="17"/>
-      <c r="Z71" s="132"/>
-      <c r="AA71" s="134"/>
-      <c r="AB71" s="134"/>
+      <c r="Z71" s="130"/>
+      <c r="AA71" s="132"/>
+      <c r="AB71" s="132"/>
       <c r="AC71" s="17"/>
       <c r="AD71" s="17"/>
       <c r="AE71" s="17"/>
@@ -7561,7 +7562,7 @@
       <c r="AI71" s="17"/>
       <c r="AJ71" s="17"/>
       <c r="AK71" s="17"/>
-      <c r="AL71" s="17"/>
+      <c r="AL71" s="93"/>
       <c r="AM71" s="17"/>
       <c r="AN71" s="17"/>
       <c r="AO71" s="17"/>
@@ -7571,7 +7572,7 @@
       <c r="AS71" s="17"/>
       <c r="AT71" s="17"/>
       <c r="AU71" s="17"/>
-      <c r="AV71" s="17"/>
+      <c r="AV71" s="93"/>
       <c r="AW71" s="17"/>
       <c r="AX71" s="17"/>
       <c r="AY71" s="61"/>
@@ -7608,9 +7609,9 @@
       <c r="W72" s="17"/>
       <c r="X72" s="17"/>
       <c r="Y72" s="17"/>
-      <c r="Z72" s="132"/>
-      <c r="AA72" s="134"/>
-      <c r="AB72" s="134"/>
+      <c r="Z72" s="130"/>
+      <c r="AA72" s="132"/>
+      <c r="AB72" s="132"/>
       <c r="AC72" s="17"/>
       <c r="AD72" s="17"/>
       <c r="AE72" s="17"/>
@@ -7620,7 +7621,7 @@
       <c r="AI72" s="17"/>
       <c r="AJ72" s="17"/>
       <c r="AK72" s="17"/>
-      <c r="AL72" s="17"/>
+      <c r="AL72" s="93"/>
       <c r="AM72" s="17"/>
       <c r="AN72" s="17"/>
       <c r="AO72" s="17"/>
@@ -7630,7 +7631,7 @@
       <c r="AS72" s="17"/>
       <c r="AT72" s="17"/>
       <c r="AU72" s="17"/>
-      <c r="AV72" s="17"/>
+      <c r="AV72" s="93"/>
       <c r="AW72" s="17"/>
       <c r="AX72" s="17"/>
       <c r="AY72" s="61"/>
@@ -7667,9 +7668,9 @@
       <c r="W73" s="17"/>
       <c r="X73" s="17"/>
       <c r="Y73" s="17"/>
-      <c r="Z73" s="132"/>
-      <c r="AA73" s="134"/>
-      <c r="AB73" s="134"/>
+      <c r="Z73" s="130"/>
+      <c r="AA73" s="132"/>
+      <c r="AB73" s="132"/>
       <c r="AC73" s="17"/>
       <c r="AD73" s="17"/>
       <c r="AE73" s="17"/>
@@ -7679,7 +7680,7 @@
       <c r="AI73" s="17"/>
       <c r="AJ73" s="17"/>
       <c r="AK73" s="17"/>
-      <c r="AL73" s="17"/>
+      <c r="AL73" s="93"/>
       <c r="AM73" s="17"/>
       <c r="AN73" s="17"/>
       <c r="AO73" s="17"/>
@@ -7689,7 +7690,7 @@
       <c r="AS73" s="17"/>
       <c r="AT73" s="17"/>
       <c r="AU73" s="17"/>
-      <c r="AV73" s="17"/>
+      <c r="AV73" s="93"/>
       <c r="AW73" s="17"/>
       <c r="AX73" s="17"/>
       <c r="AY73" s="61"/>
@@ -7943,55 +7944,55 @@
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="168"/>
-      <c r="F2" s="168"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="167" t="s">
+      <c r="E2" s="169"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="167" t="s">
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="168"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="167" t="s">
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="168"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="169"/>
-      <c r="T2" s="168" t="s">
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="168"/>
-      <c r="V2" s="168"/>
-      <c r="W2" s="168"/>
-      <c r="X2" s="167" t="s">
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="168" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="168"/>
-      <c r="Z2" s="168"/>
-      <c r="AA2" s="168"/>
-      <c r="AB2" s="169"/>
-      <c r="AC2" s="167" t="s">
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="169"/>
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="168"/>
-      <c r="AG2" s="169"/>
-      <c r="AH2" s="170" t="s">
+      <c r="AD2" s="169"/>
+      <c r="AE2" s="169"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="170"/>
+      <c r="AH2" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" s="171"/>
-      <c r="AJ2" s="158"/>
+      <c r="AI2" s="172"/>
+      <c r="AJ2" s="156"/>
     </row>
     <row r="3" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
@@ -8003,114 +8004,114 @@
       <c r="C3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="156" t="s">
+      <c r="D3" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="157" t="s">
+      <c r="E3" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="157" t="s">
+      <c r="F3" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="158" t="s">
+      <c r="G3" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="156" t="s">
+      <c r="H3" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="157" t="s">
+      <c r="I3" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="157" t="s">
+      <c r="J3" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="158" t="s">
+      <c r="K3" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="156" t="s">
+      <c r="L3" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="157" t="s">
+      <c r="M3" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="157" t="s">
+      <c r="N3" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="158" t="s">
+      <c r="O3" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="156" t="s">
+      <c r="P3" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="157" t="s">
+      <c r="Q3" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="157" t="s">
+      <c r="R3" s="155" t="s">
         <v>22</v>
       </c>
-      <c r="S3" s="158" t="s">
+      <c r="S3" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="157" t="s">
+      <c r="T3" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="157" t="s">
+      <c r="U3" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="157" t="s">
+      <c r="V3" s="155" t="s">
         <v>22</v>
       </c>
       <c r="W3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="157" t="s">
+      <c r="X3" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" s="157" t="s">
+      <c r="Y3" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="Z3" s="157" t="s">
+      <c r="Z3" s="155" t="s">
         <v>22</v>
       </c>
       <c r="AA3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AB3" s="158" t="s">
+      <c r="AB3" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="AC3" s="156" t="s">
+      <c r="AC3" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="AD3" s="157" t="s">
+      <c r="AD3" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="AE3" s="157" t="s">
+      <c r="AE3" s="155" t="s">
         <v>22</v>
       </c>
       <c r="AF3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AG3" s="158" t="s">
+      <c r="AG3" s="156" t="s">
         <v>24</v>
       </c>
-      <c r="AH3" s="159" t="s">
+      <c r="AH3" s="157" t="s">
         <v>22</v>
       </c>
-      <c r="AI3" s="160" t="s">
+      <c r="AI3" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="AJ3" s="158" t="s">
+      <c r="AJ3" s="156" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" s="34">
         <v>30</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="159" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="35">
@@ -8170,7 +8171,7 @@
       <c r="V4" s="36">
         <v>1.3538374796300574</v>
       </c>
-      <c r="W4" s="162">
+      <c r="W4" s="160">
         <v>-16</v>
       </c>
       <c r="X4" s="36">
@@ -8185,8 +8186,8 @@
       <c r="AA4" s="38">
         <v>14</v>
       </c>
-      <c r="AB4" s="163" t="s">
-        <v>64</v>
+      <c r="AB4" s="161" t="s">
+        <v>63</v>
       </c>
       <c r="AC4" s="36">
         <v>20.019329272076249</v>
@@ -8200,7 +8201,7 @@
       <c r="AF4" s="38">
         <v>30</v>
       </c>
-      <c r="AG4" s="164"/>
+      <c r="AG4" s="162"/>
       <c r="AH4" s="39" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -8213,13 +8214,13 @@
     </row>
     <row r="5" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="34">
         <v>15</v>
       </c>
-      <c r="C5" s="161" t="s">
-        <v>66</v>
+      <c r="C5" s="159" t="s">
+        <v>65</v>
       </c>
       <c r="D5" s="35">
         <v>112207.28059882406</v>
@@ -8278,7 +8279,7 @@
       <c r="V5" s="36">
         <v>8.5844761255634285</v>
       </c>
-      <c r="W5" s="162">
+      <c r="W5" s="160">
         <v>-16</v>
       </c>
       <c r="X5" s="36">
@@ -8293,8 +8294,8 @@
       <c r="AA5" s="38">
         <v>14</v>
       </c>
-      <c r="AB5" s="163" t="s">
-        <v>64</v>
+      <c r="AB5" s="161" t="s">
+        <v>63</v>
       </c>
       <c r="AC5" s="36">
         <v>3.471467742008151</v>
@@ -8308,8 +8309,8 @@
       <c r="AF5" s="38">
         <v>30</v>
       </c>
-      <c r="AG5" s="163" t="s">
-        <v>67</v>
+      <c r="AG5" s="161" t="s">
+        <v>66</v>
       </c>
       <c r="AH5" s="39" t="e">
         <f>#REF!</f>
@@ -8323,13 +8324,13 @@
     </row>
     <row r="6" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="34">
         <v>30</v>
       </c>
-      <c r="C6" s="161" t="s">
-        <v>69</v>
+      <c r="C6" s="159" t="s">
+        <v>68</v>
       </c>
       <c r="D6" s="35">
         <v>2293.2316964982456</v>
@@ -8388,7 +8389,7 @@
       <c r="V6" s="36">
         <v>-36.894904931300005</v>
       </c>
-      <c r="W6" s="162">
+      <c r="W6" s="160">
         <v>-13</v>
       </c>
       <c r="X6" s="36">
@@ -8403,8 +8404,8 @@
       <c r="AA6" s="38">
         <v>17</v>
       </c>
-      <c r="AB6" s="163" t="s">
-        <v>64</v>
+      <c r="AB6" s="161" t="s">
+        <v>63</v>
       </c>
       <c r="AC6" s="36">
         <v>29.709383051426698</v>
@@ -8431,13 +8432,13 @@
     </row>
     <row r="7" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="34">
         <v>30</v>
       </c>
-      <c r="C7" s="161" t="s">
-        <v>71</v>
+      <c r="C7" s="159" t="s">
+        <v>70</v>
       </c>
       <c r="D7" s="35">
         <v>58458.134928712738</v>
@@ -8496,7 +8497,7 @@
       <c r="V7" s="36">
         <v>-19.784619601090643</v>
       </c>
-      <c r="W7" s="162">
+      <c r="W7" s="160">
         <v>-16</v>
       </c>
       <c r="X7" s="36">
@@ -8512,7 +8513,7 @@
         <v>14</v>
       </c>
       <c r="AB7" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AC7" s="36">
         <v>0</v>
@@ -8539,13 +8540,13 @@
     </row>
     <row r="8" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="34">
         <v>0</v>
       </c>
-      <c r="C8" s="161" t="s">
-        <v>74</v>
+      <c r="C8" s="159" t="s">
+        <v>73</v>
       </c>
       <c r="D8" s="35">
         <v>44923.930867007482</v>
@@ -8604,7 +8605,7 @@
       <c r="V8" s="36">
         <v>359.17240406483239</v>
       </c>
-      <c r="W8" s="162">
+      <c r="W8" s="160">
         <v>20</v>
       </c>
       <c r="X8" s="36">
@@ -8620,7 +8621,7 @@
         <v>20</v>
       </c>
       <c r="AB8" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC8" s="36">
         <v>0</v>
@@ -8635,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="AG8" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH8" s="39"/>
       <c r="AI8" s="40"/>
@@ -8643,13 +8644,13 @@
     </row>
     <row r="9" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="34">
         <v>15</v>
       </c>
-      <c r="C9" s="161" t="s">
-        <v>78</v>
+      <c r="C9" s="159" t="s">
+        <v>77</v>
       </c>
       <c r="D9" s="35">
         <v>0</v>
@@ -8708,7 +8709,7 @@
       <c r="V9" s="36">
         <v>-14.742660943123306</v>
       </c>
-      <c r="W9" s="162">
+      <c r="W9" s="160">
         <v>-16</v>
       </c>
       <c r="X9" s="36">
@@ -8723,8 +8724,8 @@
       <c r="AA9" s="38">
         <v>14</v>
       </c>
-      <c r="AB9" s="163" t="s">
-        <v>64</v>
+      <c r="AB9" s="161" t="s">
+        <v>63</v>
       </c>
       <c r="AC9" s="36">
         <v>0</v>
@@ -8739,7 +8740,7 @@
         <v>30</v>
       </c>
       <c r="AG9" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH9" s="39"/>
       <c r="AI9" s="40"/>
@@ -8747,13 +8748,13 @@
     </row>
     <row r="10" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="34">
         <v>0</v>
       </c>
-      <c r="C10" s="161" t="s">
-        <v>81</v>
+      <c r="C10" s="159" t="s">
+        <v>80</v>
       </c>
       <c r="D10" s="35">
         <v>615.62887327594319</v>
@@ -8812,7 +8813,7 @@
       <c r="V10" s="36">
         <v>13.884520629645831</v>
       </c>
-      <c r="W10" s="162">
+      <c r="W10" s="160">
         <v>-16</v>
       </c>
       <c r="X10" s="36">
@@ -8827,8 +8828,8 @@
       <c r="AA10" s="38">
         <v>14</v>
       </c>
-      <c r="AB10" s="163" t="s">
-        <v>64</v>
+      <c r="AB10" s="161" t="s">
+        <v>63</v>
       </c>
       <c r="AC10" s="36">
         <v>0</v>
@@ -8843,7 +8844,7 @@
         <v>30</v>
       </c>
       <c r="AG10" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH10" s="39"/>
       <c r="AI10" s="40"/>
@@ -8851,13 +8852,13 @@
     </row>
     <row r="11" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B11" s="34">
         <v>7</v>
       </c>
-      <c r="C11" s="161" t="s">
-        <v>83</v>
+      <c r="C11" s="159" t="s">
+        <v>82</v>
       </c>
       <c r="D11" s="35">
         <v>66413.60080356682</v>
@@ -8916,7 +8917,7 @@
       <c r="V11" s="36">
         <v>9.8515680326214614</v>
       </c>
-      <c r="W11" s="162">
+      <c r="W11" s="160">
         <v>-16</v>
       </c>
       <c r="X11" s="36">
@@ -8931,8 +8932,8 @@
       <c r="AA11" s="38">
         <v>14</v>
       </c>
-      <c r="AB11" s="163" t="s">
-        <v>64</v>
+      <c r="AB11" s="161" t="s">
+        <v>63</v>
       </c>
       <c r="AC11" s="36">
         <v>0.12954688497990646</v>
@@ -8946,8 +8947,8 @@
       <c r="AF11" s="38">
         <v>30</v>
       </c>
-      <c r="AG11" s="163" t="s">
-        <v>67</v>
+      <c r="AG11" s="161" t="s">
+        <v>66</v>
       </c>
       <c r="AH11" s="39"/>
       <c r="AI11" s="40"/>
@@ -8955,13 +8956,13 @@
     </row>
     <row r="12" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="34">
         <v>30</v>
       </c>
-      <c r="C12" s="161" t="s">
-        <v>85</v>
+      <c r="C12" s="159" t="s">
+        <v>84</v>
       </c>
       <c r="D12" s="35">
         <v>0</v>
@@ -9020,7 +9021,7 @@
       <c r="V12" s="36">
         <v>-17.990603583853655</v>
       </c>
-      <c r="W12" s="162">
+      <c r="W12" s="160">
         <v>-16</v>
       </c>
       <c r="X12" s="36">
@@ -9035,8 +9036,8 @@
       <c r="AA12" s="38">
         <v>14</v>
       </c>
-      <c r="AB12" s="163" t="s">
-        <v>64</v>
+      <c r="AB12" s="161" t="s">
+        <v>63</v>
       </c>
       <c r="AC12" s="36">
         <v>0</v>
@@ -9057,13 +9058,13 @@
     </row>
     <row r="13" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" s="34">
         <v>30</v>
       </c>
-      <c r="C13" s="161" t="s">
-        <v>87</v>
+      <c r="C13" s="159" t="s">
+        <v>86</v>
       </c>
       <c r="D13" s="35">
         <v>5474.6085549380896</v>
@@ -9122,7 +9123,7 @@
       <c r="V13" s="36">
         <v>-1.7671631071884655</v>
       </c>
-      <c r="W13" s="162">
+      <c r="W13" s="160">
         <v>-16</v>
       </c>
       <c r="X13" s="36">
@@ -9137,8 +9138,8 @@
       <c r="AA13" s="38">
         <v>14</v>
       </c>
-      <c r="AB13" s="163" t="s">
-        <v>64</v>
+      <c r="AB13" s="161" t="s">
+        <v>63</v>
       </c>
       <c r="AC13" s="36">
         <v>0</v>
@@ -9159,13 +9160,13 @@
     </row>
     <row r="14" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="34">
         <v>30</v>
       </c>
-      <c r="C14" s="161" t="s">
-        <v>89</v>
+      <c r="C14" s="159" t="s">
+        <v>88</v>
       </c>
       <c r="D14" s="35">
         <v>250398.37268952877</v>
@@ -9224,7 +9225,7 @@
       <c r="V14" s="36">
         <v>5984.1885401419577</v>
       </c>
-      <c r="W14" s="162">
+      <c r="W14" s="160">
         <v>-16</v>
       </c>
       <c r="X14" s="36">
@@ -9239,8 +9240,8 @@
       <c r="AA14" s="38">
         <v>14</v>
       </c>
-      <c r="AB14" s="163" t="s">
-        <v>64</v>
+      <c r="AB14" s="161" t="s">
+        <v>63</v>
       </c>
       <c r="AC14" s="36">
         <v>30.863132348973146</v>
@@ -9261,13 +9262,13 @@
     </row>
     <row r="15" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" s="34">
         <v>0</v>
       </c>
-      <c r="C15" s="161" t="s">
-        <v>91</v>
+      <c r="C15" s="159" t="s">
+        <v>90</v>
       </c>
       <c r="D15" s="35">
         <v>29192.080742152924</v>
@@ -9326,7 +9327,7 @@
       <c r="V15" s="36">
         <v>708.46692570686162</v>
       </c>
-      <c r="W15" s="162">
+      <c r="W15" s="160">
         <v>105</v>
       </c>
       <c r="X15" s="36">
@@ -9342,7 +9343,7 @@
         <v>105</v>
       </c>
       <c r="AB15" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AC15" s="36">
         <v>0</v>
@@ -9357,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="AG15" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AH15" s="39"/>
       <c r="AI15" s="40"/>
@@ -9365,13 +9366,13 @@
     </row>
     <row r="16" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="34">
         <v>30</v>
       </c>
-      <c r="C16" s="161" t="s">
-        <v>94</v>
+      <c r="C16" s="159" t="s">
+        <v>93</v>
       </c>
       <c r="D16" s="35">
         <v>49137.1432407881</v>
@@ -9430,7 +9431,7 @@
       <c r="V16" s="36">
         <v>45.743870811395553</v>
       </c>
-      <c r="W16" s="162">
+      <c r="W16" s="160">
         <v>-16</v>
       </c>
       <c r="X16" s="36">
@@ -9445,8 +9446,8 @@
       <c r="AA16" s="38">
         <v>14</v>
       </c>
-      <c r="AB16" s="163" t="s">
-        <v>64</v>
+      <c r="AB16" s="161" t="s">
+        <v>63</v>
       </c>
       <c r="AC16" s="36">
         <v>1.0143660698530359</v>
@@ -9467,13 +9468,13 @@
     </row>
     <row r="17" spans="1:36" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B17" s="34">
         <v>30</v>
       </c>
-      <c r="C17" s="161" t="s">
-        <v>96</v>
+      <c r="C17" s="159" t="s">
+        <v>95</v>
       </c>
       <c r="D17" s="35">
         <v>28943.471048225805</v>
@@ -9532,7 +9533,7 @@
       <c r="V17" s="36">
         <v>114.74675065101555</v>
       </c>
-      <c r="W17" s="162">
+      <c r="W17" s="160">
         <v>0</v>
       </c>
       <c r="X17" s="36">
@@ -9548,7 +9549,7 @@
         <v>30</v>
       </c>
       <c r="AB17" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC17" s="36">
         <v>14.52895275007976</v>
@@ -9575,13 +9576,13 @@
     </row>
     <row r="18" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="34">
         <v>30</v>
       </c>
-      <c r="C18" s="161" t="s">
-        <v>99</v>
+      <c r="C18" s="159" t="s">
+        <v>98</v>
       </c>
       <c r="D18" s="35">
         <v>94986.402572492603</v>
@@ -9640,7 +9641,7 @@
       <c r="V18" s="36">
         <v>475.20670239535002</v>
       </c>
-      <c r="W18" s="162">
+      <c r="W18" s="160">
         <v>47</v>
       </c>
       <c r="X18" s="36">
@@ -9656,7 +9657,7 @@
         <v>77</v>
       </c>
       <c r="AB18" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC18" s="36">
         <v>0</v>
@@ -9670,7 +9671,7 @@
       <c r="AF18" s="38">
         <v>30</v>
       </c>
-      <c r="AG18" s="165"/>
+      <c r="AG18" s="163"/>
       <c r="AH18" s="39" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -9683,13 +9684,13 @@
     </row>
     <row r="19" spans="1:36" ht="58" x14ac:dyDescent="0.35">
       <c r="A19" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="34">
         <v>30</v>
       </c>
-      <c r="C19" s="161" t="s">
-        <v>102</v>
+      <c r="C19" s="159" t="s">
+        <v>101</v>
       </c>
       <c r="D19" s="43">
         <v>30343.805524618663</v>
@@ -9748,7 +9749,7 @@
       <c r="V19" s="44">
         <v>8.7834937546197391</v>
       </c>
-      <c r="W19" s="166">
+      <c r="W19" s="164">
         <v>-15</v>
       </c>
       <c r="X19" s="36">
@@ -9763,8 +9764,8 @@
       <c r="AA19" s="38">
         <v>15</v>
       </c>
-      <c r="AB19" s="163" t="s">
-        <v>103</v>
+      <c r="AB19" s="161" t="s">
+        <v>102</v>
       </c>
       <c r="AC19" s="36">
         <v>2.1011458860996202</v>
@@ -9956,16 +9957,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FC251"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:FC2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="50.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
     <col min="3" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="15" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
@@ -10039,10 +10040,10 @@
       <c r="D2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="125" t="s">
+      <c r="E2" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="128" t="s">
+      <c r="F2" s="126" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="5">
@@ -10658,10 +10659,10 @@
       </c>
     </row>
     <row r="3" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="113"/>
+      <c r="A3" s="111"/>
       <c r="B3"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="129"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="127"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -10756,10 +10757,10 @@
       <c r="CT3"/>
     </row>
     <row r="4" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="113"/>
+      <c r="A4" s="111"/>
       <c r="B4"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="129"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="127"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -10854,10 +10855,10 @@
       <c r="CT4"/>
     </row>
     <row r="5" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="113"/>
+      <c r="A5" s="111"/>
       <c r="B5"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="129"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="127"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -10952,10 +10953,10 @@
       <c r="CT5"/>
     </row>
     <row r="6" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="113"/>
+      <c r="A6" s="111"/>
       <c r="B6"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="129"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="127"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -11050,10 +11051,10 @@
       <c r="CT6"/>
     </row>
     <row r="7" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="113"/>
+      <c r="A7" s="111"/>
       <c r="B7"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="129"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="127"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -11148,10 +11149,10 @@
       <c r="CT7"/>
     </row>
     <row r="8" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="113"/>
+      <c r="A8" s="111"/>
       <c r="B8"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="129"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="127"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -11246,10 +11247,10 @@
       <c r="CT8"/>
     </row>
     <row r="9" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="113"/>
+      <c r="A9" s="111"/>
       <c r="B9"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="129"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="127"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -11344,10 +11345,10 @@
       <c r="CT9"/>
     </row>
     <row r="10" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="113"/>
+      <c r="A10" s="111"/>
       <c r="B10"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="129"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="127"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -11442,10 +11443,10 @@
       <c r="CT10"/>
     </row>
     <row r="11" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="113"/>
+      <c r="A11" s="111"/>
       <c r="B11"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="129"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="127"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -11540,10 +11541,10 @@
       <c r="CT11"/>
     </row>
     <row r="12" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="113"/>
+      <c r="A12" s="111"/>
       <c r="B12"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="129"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="127"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -11638,10 +11639,10 @@
       <c r="CT12"/>
     </row>
     <row r="13" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
+      <c r="A13" s="111"/>
       <c r="B13"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="129"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="127"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -11736,10 +11737,10 @@
       <c r="CT13"/>
     </row>
     <row r="14" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="113"/>
+      <c r="A14" s="111"/>
       <c r="B14"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="129"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="127"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -11834,10 +11835,10 @@
       <c r="CT14"/>
     </row>
     <row r="15" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="113"/>
+      <c r="A15" s="111"/>
       <c r="B15"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="129"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="127"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -11934,61 +11935,61 @@
     <row r="16" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="126"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="124"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="126"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="124"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="126"/>
+      <c r="E18" s="124"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="124"/>
     </row>
     <row r="19" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="126"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="124"/>
     </row>
     <row r="20" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="126"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="124"/>
     </row>
     <row r="21" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="126"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="124"/>
     </row>
     <row r="22" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="126"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="124"/>
     </row>
     <row r="23" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="126"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="124"/>
     </row>
     <row r="24" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24"/>
       <c r="B24"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="126"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="124"/>
     </row>
     <row r="25" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25"/>
@@ -13236,7 +13237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:FC251"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -13245,7 +13246,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="43.81640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" customWidth="1"/>
     <col min="3" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
@@ -13335,7 +13336,7 @@
       <c r="E2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="128" t="s">
+      <c r="F2" s="126" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="5">
@@ -13954,86 +13955,86 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="129"/>
+      <c r="F3" s="127"/>
     </row>
     <row r="4" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="129"/>
+      <c r="F4" s="127"/>
     </row>
     <row r="5" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="129"/>
+      <c r="F5" s="127"/>
     </row>
     <row r="6" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="129"/>
+      <c r="F6" s="127"/>
     </row>
     <row r="7" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="129"/>
+      <c r="F7" s="127"/>
     </row>
     <row r="8" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="129"/>
+      <c r="F8" s="127"/>
     </row>
     <row r="9" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="129"/>
+      <c r="F9" s="127"/>
     </row>
     <row r="10" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="129"/>
+      <c r="F10" s="127"/>
     </row>
     <row r="11" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="129"/>
+      <c r="F11" s="127"/>
     </row>
     <row r="12" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="129"/>
+      <c r="F12" s="127"/>
     </row>
     <row r="13" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="129"/>
+      <c r="F13" s="127"/>
     </row>
     <row r="14" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="129"/>
+      <c r="F14" s="127"/>
     </row>
     <row r="15" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="129"/>
+      <c r="F15" s="127"/>
     </row>
     <row r="16" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="124"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -14130,8 +14131,8 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="126"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="124"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -14228,8 +14229,8 @@
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="126"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="124"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -37073,7 +37074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:FC251"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -37082,7 +37083,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="32.81640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" customWidth="1"/>
     <col min="3" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="15" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.54296875" bestFit="1" customWidth="1"/>
@@ -37138,8 +37139,8 @@
       <c r="C1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="127"/>
-      <c r="G1" s="125" t="s">
+      <c r="F1" s="125"/>
+      <c r="G1" s="123" t="s">
         <v>41</v>
       </c>
     </row>
@@ -37159,7 +37160,7 @@
       <c r="E2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="128" t="s">
+      <c r="F2" s="126" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="5">
@@ -37777,7 +37778,7 @@
     <row r="3" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3"/>
-      <c r="F3" s="129"/>
+      <c r="F3" s="127"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
@@ -37874,7 +37875,7 @@
     <row r="4" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="F4" s="129"/>
+      <c r="F4" s="127"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
@@ -37971,7 +37972,7 @@
     <row r="5" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5"/>
-      <c r="F5" s="129"/>
+      <c r="F5" s="127"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
@@ -38068,7 +38069,7 @@
     <row r="6" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6"/>
-      <c r="F6" s="129"/>
+      <c r="F6" s="127"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
@@ -38165,7 +38166,7 @@
     <row r="7" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7"/>
-      <c r="F7" s="129"/>
+      <c r="F7" s="127"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
@@ -38262,7 +38263,7 @@
     <row r="8" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8"/>
-      <c r="F8" s="129"/>
+      <c r="F8" s="127"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -38359,7 +38360,7 @@
     <row r="9" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9"/>
-      <c r="F9" s="129"/>
+      <c r="F9" s="127"/>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
@@ -38456,7 +38457,7 @@
     <row r="10" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10"/>
-      <c r="F10" s="129"/>
+      <c r="F10" s="127"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -38553,7 +38554,7 @@
     <row r="11" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11"/>
-      <c r="F11" s="129"/>
+      <c r="F11" s="127"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
@@ -38626,7 +38627,7 @@
       <c r="BX11"/>
       <c r="BY11"/>
       <c r="BZ11"/>
-      <c r="CA11" s="115"/>
+      <c r="CA11" s="113"/>
       <c r="CB11"/>
       <c r="CC11"/>
       <c r="CD11"/>
@@ -38650,7 +38651,7 @@
     <row r="12" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="F12" s="129"/>
+      <c r="F12" s="127"/>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -38747,7 +38748,7 @@
     <row r="13" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="F13" s="129"/>
+      <c r="F13" s="127"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
@@ -38844,7 +38845,7 @@
     <row r="14" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="F14" s="129"/>
+      <c r="F14" s="127"/>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
@@ -38941,7 +38942,7 @@
     <row r="15" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15"/>
-      <c r="F15" s="129"/>
+      <c r="F15" s="127"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15"/>
@@ -39038,14 +39039,14 @@
     <row r="16" spans="1:159" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="124"/>
     </row>
     <row r="17" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="126"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="124"/>
     </row>
     <row r="18" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18"/>
@@ -40227,7 +40228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:FC251"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -40237,7 +40238,7 @@
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.453125" customWidth="1"/>
-    <col min="2" max="2" width="42.36328125" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" customWidth="1"/>
     <col min="3" max="6" width="20.26953125" customWidth="1"/>
     <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
@@ -40387,7 +40388,7 @@
       <c r="E2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="128" t="s">
+      <c r="F2" s="126" t="s">
         <v>61</v>
       </c>
       <c r="G2" s="5">
@@ -41006,86 +41007,86 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="129"/>
+      <c r="F3" s="127"/>
     </row>
     <row r="4" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="129"/>
+      <c r="F4" s="127"/>
     </row>
     <row r="5" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="129"/>
+      <c r="F5" s="127"/>
     </row>
     <row r="6" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="129"/>
+      <c r="F6" s="127"/>
     </row>
     <row r="7" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="129"/>
+      <c r="F7" s="127"/>
     </row>
     <row r="8" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="129"/>
+      <c r="F8" s="127"/>
     </row>
     <row r="9" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="129"/>
+      <c r="F9" s="127"/>
     </row>
     <row r="10" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="129"/>
+      <c r="F10" s="127"/>
     </row>
     <row r="11" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="129"/>
+      <c r="F11" s="127"/>
     </row>
     <row r="12" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="129"/>
+      <c r="F12" s="127"/>
     </row>
     <row r="13" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="129"/>
+      <c r="F13" s="127"/>
     </row>
     <row r="14" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="129"/>
+      <c r="F14" s="127"/>
     </row>
     <row r="15" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="129"/>
+      <c r="F15" s="127"/>
     </row>
     <row r="16" spans="1:159" x14ac:dyDescent="0.35">
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="124"/>
       <c r="H16" s="18"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -41182,8 +41183,8 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="126"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="124"/>
       <c r="H17" s="18"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>

--- a/TH/wc_template_TH_v3.xlsx
+++ b/TH/wc_template_TH_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\TH\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD8005D-8E12-428A-A7AB-5F948B7D97D4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8E248B-540B-4903-9DD8-55E7DB41D9F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="500" windowWidth="17070" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="10" r:id="rId1"/>
@@ -487,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -710,13 +710,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1178,6 +1189,15 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1472,7 +1492,7 @@
   <dimension ref="A1:BD73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
@@ -1853,7 +1873,7 @@
         <v>#N/A</v>
       </c>
       <c r="P4" s="96" t="e">
-        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q4" s="118"/>
@@ -1913,7 +1933,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN4" s="119" t="str">
-        <f>IFERROR(AR4/M4*30,"n.a.")</f>
+        <f t="shared" ref="AN4:AN20" si="3">IFERROR(AR4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AO4" s="96" t="e">
@@ -1949,11 +1969,11 @@
         <v>n.a.</v>
       </c>
       <c r="AW4" s="99" t="str">
-        <f t="shared" ref="AW4:AW18" si="3">IFERROR(-AS4+AV4, "n.a.")</f>
+        <f t="shared" ref="AW4:AW18" si="4">IFERROR(-AS4+AV4, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX4" s="119" t="str">
-        <f>IFERROR(BB4/M4*30,"n.a.")</f>
+        <f t="shared" ref="AX4:AX20" si="5">IFERROR(BB4/M4*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AY4" s="96" t="e">
@@ -2008,7 +2028,7 @@
         <v>#N/A</v>
       </c>
       <c r="P5" s="96" t="e">
-        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q5" s="118"/>
@@ -2024,7 +2044,7 @@
       <c r="AA5" s="118"/>
       <c r="AB5" s="118"/>
       <c r="AC5" s="97" t="str">
-        <f t="shared" ref="AC5:AC20" si="4">IFERROR(AI5-AS5, "")</f>
+        <f t="shared" ref="AC5:AC20" si="6">IFERROR(AI5-AS5, "")</f>
         <v/>
       </c>
       <c r="AD5" s="104" t="str">
@@ -2044,7 +2064,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH5" s="148" t="str">
-        <f t="shared" ref="AH5:AH20" si="5">IFERROR(IF(AN5="n.a.", -AX5, IF(AX5="n.a.", AN5, AN5-AX5)),"n.a.")</f>
+        <f t="shared" ref="AH5:AH20" si="7">IFERROR(IF(AN5="n.a.", -AX5, IF(AX5="n.a.", AN5, AN5-AX5)),"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AI5" s="164" t="str">
@@ -2052,15 +2072,15 @@
         <v/>
       </c>
       <c r="AJ5" s="98" t="str">
-        <f t="shared" ref="AJ5:AJ19" si="6">IFERROR(AO5/J5*30,"n.a.")</f>
+        <f t="shared" ref="AJ5:AJ19" si="8">IFERROR(AO5/J5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AK5" s="101" t="str">
-        <f t="shared" ref="AK5:AK19" si="7">IFERROR(AP5/K5*30,"n.a.")</f>
+        <f t="shared" ref="AK5:AK19" si="9">IFERROR(AP5/K5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AL5" s="98" t="str">
-        <f t="shared" ref="AL5:AL19" si="8">IFERROR(AQ5/L5*30,"n.a.")</f>
+        <f t="shared" ref="AL5:AL19" si="10">IFERROR(AQ5/L5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AM5" s="105" t="str">
@@ -2068,7 +2088,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN5" s="119" t="str">
-        <f>IFERROR(AR5/M5*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO5" s="107" t="e">
@@ -2092,23 +2112,23 @@
         <v/>
       </c>
       <c r="AT5" s="98" t="str">
-        <f t="shared" ref="AT5:AT19" si="9">IFERROR(AY5/J5*30,"n.a.")</f>
+        <f t="shared" ref="AT5:AT19" si="11">IFERROR(AY5/J5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AU5" s="98" t="str">
-        <f t="shared" ref="AU5:AU19" si="10">IFERROR(AZ5/K5*30,"n.a.")</f>
+        <f t="shared" ref="AU5:AU19" si="12">IFERROR(AZ5/K5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AV5" s="94" t="str">
-        <f t="shared" ref="AV5:AV19" si="11">IFERROR(BA5/L5*30,"n.a.")</f>
+        <f t="shared" ref="AV5:AV19" si="13">IFERROR(BA5/L5*30,"n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AW5" s="105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX5" s="119" t="str">
-        <f>IFERROR(BB5/M5*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY5" s="107" t="e">
@@ -2163,7 +2183,7 @@
         <v>#N/A</v>
       </c>
       <c r="P6" s="96" t="e">
-        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q6" s="118"/>
@@ -2179,7 +2199,7 @@
       <c r="AA6" s="118"/>
       <c r="AB6" s="118"/>
       <c r="AC6" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD6" s="104" t="str">
@@ -2199,7 +2219,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH6" s="148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI6" s="164" t="str">
@@ -2207,15 +2227,15 @@
         <v/>
       </c>
       <c r="AJ6" s="98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK6" s="101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL6" s="98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM6" s="105" t="str">
@@ -2223,7 +2243,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN6" s="119" t="str">
-        <f>IFERROR(AR6/M6*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO6" s="107" t="e">
@@ -2247,23 +2267,23 @@
         <v/>
       </c>
       <c r="AT6" s="98" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU6" s="98" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV6" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU6" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV6" s="94" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW6" s="105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX6" s="119" t="str">
-        <f>IFERROR(BB6/M6*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY6" s="107" t="e">
@@ -2318,7 +2338,7 @@
         <v>#N/A</v>
       </c>
       <c r="P7" s="96" t="e">
-        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q7" s="118"/>
@@ -2334,7 +2354,7 @@
       <c r="AA7" s="118"/>
       <c r="AB7" s="118"/>
       <c r="AC7" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD7" s="104" t="str">
@@ -2354,7 +2374,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH7" s="148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI7" s="164" t="str">
@@ -2362,15 +2382,15 @@
         <v/>
       </c>
       <c r="AJ7" s="98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK7" s="101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL7" s="98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM7" s="105" t="str">
@@ -2378,7 +2398,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN7" s="119" t="str">
-        <f>IFERROR(AR7/M7*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO7" s="107" t="e">
@@ -2402,23 +2422,23 @@
         <v/>
       </c>
       <c r="AT7" s="98" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU7" s="98" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV7" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU7" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV7" s="94" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW7" s="105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX7" s="119" t="str">
-        <f>IFERROR(BB7/M7*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY7" s="107" t="e">
@@ -2473,7 +2493,7 @@
         <v>#N/A</v>
       </c>
       <c r="P8" s="96" t="e">
-        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q8" s="118"/>
@@ -2489,7 +2509,7 @@
       <c r="AA8" s="118"/>
       <c r="AB8" s="118"/>
       <c r="AC8" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD8" s="104" t="str">
@@ -2509,7 +2529,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH8" s="148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI8" s="164" t="str">
@@ -2517,15 +2537,15 @@
         <v/>
       </c>
       <c r="AJ8" s="98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK8" s="101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL8" s="98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM8" s="105" t="str">
@@ -2533,7 +2553,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN8" s="119" t="str">
-        <f>IFERROR(AR8/M8*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO8" s="107" t="e">
@@ -2557,23 +2577,23 @@
         <v/>
       </c>
       <c r="AT8" s="98" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU8" s="98" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV8" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU8" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV8" s="94" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW8" s="105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX8" s="119" t="str">
-        <f>IFERROR(BB8/M8*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY8" s="107" t="e">
@@ -2628,7 +2648,7 @@
         <v>#N/A</v>
       </c>
       <c r="P9" s="96" t="e">
-        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q9" s="118"/>
@@ -2644,7 +2664,7 @@
       <c r="AA9" s="118"/>
       <c r="AB9" s="118"/>
       <c r="AC9" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD9" s="104" t="str">
@@ -2664,7 +2684,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH9" s="148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI9" s="164" t="str">
@@ -2672,15 +2692,15 @@
         <v/>
       </c>
       <c r="AJ9" s="98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK9" s="101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL9" s="98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM9" s="105" t="str">
@@ -2688,7 +2708,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN9" s="119" t="str">
-        <f>IFERROR(AR9/M9*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO9" s="107" t="e">
@@ -2712,23 +2732,23 @@
         <v/>
       </c>
       <c r="AT9" s="98" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU9" s="98" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV9" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU9" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV9" s="94" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW9" s="105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX9" s="119" t="str">
-        <f>IFERROR(BB9/M9*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY9" s="107" t="e">
@@ -2783,7 +2803,7 @@
         <v>#N/A</v>
       </c>
       <c r="P10" s="96" t="e">
-        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q10" s="118"/>
@@ -2799,7 +2819,7 @@
       <c r="AA10" s="118"/>
       <c r="AB10" s="118"/>
       <c r="AC10" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD10" s="104" t="str">
@@ -2819,7 +2839,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH10" s="148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI10" s="164" t="str">
@@ -2827,15 +2847,15 @@
         <v/>
       </c>
       <c r="AJ10" s="98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK10" s="101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL10" s="98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM10" s="105" t="str">
@@ -2843,7 +2863,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN10" s="119" t="str">
-        <f>IFERROR(AR10/M10*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO10" s="107" t="e">
@@ -2867,23 +2887,23 @@
         <v/>
       </c>
       <c r="AT10" s="98" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU10" s="98" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV10" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU10" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV10" s="94" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW10" s="105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX10" s="119" t="str">
-        <f>IFERROR(BB10/M10*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY10" s="107" t="e">
@@ -2938,7 +2958,7 @@
         <v>#N/A</v>
       </c>
       <c r="P11" s="96" t="e">
-        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q11" s="118"/>
@@ -2954,7 +2974,7 @@
       <c r="AA11" s="118"/>
       <c r="AB11" s="118"/>
       <c r="AC11" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD11" s="104" t="str">
@@ -2974,7 +2994,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH11" s="148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI11" s="164" t="str">
@@ -2982,15 +3002,15 @@
         <v/>
       </c>
       <c r="AJ11" s="98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK11" s="101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL11" s="98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM11" s="105" t="str">
@@ -2998,7 +3018,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN11" s="119" t="str">
-        <f>IFERROR(AR11/M11*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO11" s="107" t="e">
@@ -3022,23 +3042,23 @@
         <v/>
       </c>
       <c r="AT11" s="98" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU11" s="98" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV11" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU11" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV11" s="94" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW11" s="105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX11" s="119" t="str">
-        <f>IFERROR(BB11/M11*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY11" s="107" t="e">
@@ -3093,7 +3113,7 @@
         <v>#N/A</v>
       </c>
       <c r="P12" s="96" t="e">
-        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q12" s="118"/>
@@ -3109,7 +3129,7 @@
       <c r="AA12" s="118"/>
       <c r="AB12" s="118"/>
       <c r="AC12" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD12" s="104" t="str">
@@ -3129,7 +3149,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH12" s="148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI12" s="164" t="str">
@@ -3137,15 +3157,15 @@
         <v/>
       </c>
       <c r="AJ12" s="98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK12" s="101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL12" s="98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM12" s="105" t="str">
@@ -3153,7 +3173,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN12" s="119" t="str">
-        <f>IFERROR(AR12/M12*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO12" s="107" t="e">
@@ -3177,23 +3197,23 @@
         <v/>
       </c>
       <c r="AT12" s="98" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU12" s="98" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV12" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU12" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV12" s="94" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW12" s="105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX12" s="119" t="str">
-        <f>IFERROR(BB12/M12*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY12" s="107" t="e">
@@ -3248,7 +3268,7 @@
         <v>#N/A</v>
       </c>
       <c r="P13" s="96" t="e">
-        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q13" s="118"/>
@@ -3264,7 +3284,7 @@
       <c r="AA13" s="118"/>
       <c r="AB13" s="118"/>
       <c r="AC13" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD13" s="104" t="str">
@@ -3284,7 +3304,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH13" s="148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI13" s="164" t="str">
@@ -3292,15 +3312,15 @@
         <v/>
       </c>
       <c r="AJ13" s="98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK13" s="101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL13" s="98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM13" s="105" t="str">
@@ -3308,7 +3328,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN13" s="119" t="str">
-        <f>IFERROR(AR13/M13*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO13" s="107" t="e">
@@ -3332,23 +3352,23 @@
         <v/>
       </c>
       <c r="AT13" s="98" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU13" s="98" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV13" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU13" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV13" s="94" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW13" s="105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX13" s="119" t="str">
-        <f>IFERROR(BB13/M13*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY13" s="107" t="e">
@@ -3403,7 +3423,7 @@
         <v>#N/A</v>
       </c>
       <c r="P14" s="96" t="e">
-        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q14" s="118"/>
@@ -3419,7 +3439,7 @@
       <c r="AA14" s="118"/>
       <c r="AB14" s="118"/>
       <c r="AC14" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD14" s="104" t="str">
@@ -3439,7 +3459,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH14" s="148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI14" s="164" t="str">
@@ -3447,15 +3467,15 @@
         <v/>
       </c>
       <c r="AJ14" s="98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK14" s="101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL14" s="98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM14" s="105" t="str">
@@ -3463,7 +3483,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN14" s="119" t="str">
-        <f>IFERROR(AR14/M14*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO14" s="107" t="e">
@@ -3487,23 +3507,23 @@
         <v/>
       </c>
       <c r="AT14" s="98" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU14" s="98" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV14" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU14" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV14" s="94" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW14" s="105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX14" s="119" t="str">
-        <f>IFERROR(BB14/M14*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY14" s="107" t="e">
@@ -3558,7 +3578,7 @@
         <v>#N/A</v>
       </c>
       <c r="P15" s="96" t="e">
-        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q15" s="118"/>
@@ -3574,7 +3594,7 @@
       <c r="AA15" s="118"/>
       <c r="AB15" s="118"/>
       <c r="AC15" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD15" s="104" t="str">
@@ -3594,7 +3614,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH15" s="148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI15" s="164" t="str">
@@ -3602,15 +3622,15 @@
         <v/>
       </c>
       <c r="AJ15" s="98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK15" s="101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL15" s="98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM15" s="105" t="str">
@@ -3618,7 +3638,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN15" s="119" t="str">
-        <f>IFERROR(AR15/M15*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO15" s="107" t="e">
@@ -3642,23 +3662,23 @@
         <v/>
       </c>
       <c r="AT15" s="98" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU15" s="98" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV15" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU15" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV15" s="94" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW15" s="105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX15" s="119" t="str">
-        <f>IFERROR(BB15/M15*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY15" s="107" t="e">
@@ -3713,7 +3733,7 @@
         <v>#N/A</v>
       </c>
       <c r="P16" s="96" t="e">
-        <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B16,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q16" s="118"/>
@@ -3729,7 +3749,7 @@
       <c r="AA16" s="118"/>
       <c r="AB16" s="118"/>
       <c r="AC16" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD16" s="104" t="str">
@@ -3749,7 +3769,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH16" s="148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI16" s="164" t="str">
@@ -3757,15 +3777,15 @@
         <v/>
       </c>
       <c r="AJ16" s="98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK16" s="101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL16" s="98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM16" s="105" t="str">
@@ -3773,7 +3793,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN16" s="119" t="str">
-        <f>IFERROR(AR16/M16*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO16" s="107" t="e">
@@ -3797,23 +3817,23 @@
         <v/>
       </c>
       <c r="AT16" s="98" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU16" s="98" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV16" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU16" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV16" s="94" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW16" s="105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX16" s="119" t="str">
-        <f>IFERROR(BB16/M16*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY16" s="107" t="e">
@@ -3868,7 +3888,7 @@
         <v>#N/A</v>
       </c>
       <c r="P17" s="96" t="e">
-        <f>VLOOKUP($B17,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B17,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q17" s="118"/>
@@ -3884,7 +3904,7 @@
       <c r="AA17" s="118"/>
       <c r="AB17" s="118"/>
       <c r="AC17" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD17" s="104" t="str">
@@ -3904,7 +3924,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH17" s="148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI17" s="164" t="str">
@@ -3912,15 +3932,15 @@
         <v/>
       </c>
       <c r="AJ17" s="98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK17" s="101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL17" s="98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM17" s="105" t="str">
@@ -3928,7 +3948,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN17" s="119" t="str">
-        <f>IFERROR(AR17/M17*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO17" s="107" t="e">
@@ -3952,23 +3972,23 @@
         <v/>
       </c>
       <c r="AT17" s="98" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU17" s="98" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV17" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU17" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV17" s="94" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW17" s="105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX17" s="119" t="str">
-        <f>IFERROR(BB17/M17*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY17" s="107" t="e">
@@ -4023,7 +4043,7 @@
         <v>#N/A</v>
       </c>
       <c r="P18" s="96" t="e">
-        <f>VLOOKUP($B18,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B18,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q18" s="118"/>
@@ -4039,7 +4059,7 @@
       <c r="AA18" s="118"/>
       <c r="AB18" s="118"/>
       <c r="AC18" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD18" s="104" t="str">
@@ -4059,7 +4079,7 @@
         <v>n.a.</v>
       </c>
       <c r="AH18" s="148" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI18" s="164" t="str">
@@ -4067,15 +4087,15 @@
         <v/>
       </c>
       <c r="AJ18" s="98" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
       <c r="AK18" s="101" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
       <c r="AL18" s="98" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM18" s="105" t="str">
@@ -4083,7 +4103,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN18" s="119" t="str">
-        <f>IFERROR(AR18/M18*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO18" s="107" t="e">
@@ -4107,23 +4127,23 @@
         <v/>
       </c>
       <c r="AT18" s="98" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU18" s="98" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV18" s="94" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU18" s="98" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV18" s="94" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW18" s="105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>n.a.</v>
       </c>
       <c r="AX18" s="119" t="str">
-        <f>IFERROR(BB18/M18*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY18" s="107" t="e">
@@ -4178,7 +4198,7 @@
         <v>#N/A</v>
       </c>
       <c r="P19" s="107" t="e">
-        <f>VLOOKUP($B19,'Daily Inbounds'!$B:$E,5,FALSE)</f>
+        <f>VLOOKUP($B19,'Daily Inbounds'!$B:$E,4,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="Q19" s="140"/>
@@ -4193,8 +4213,8 @@
       <c r="Z19" s="140"/>
       <c r="AA19" s="140"/>
       <c r="AB19" s="140"/>
-      <c r="AC19" s="97" t="str">
-        <f t="shared" si="4"/>
+      <c r="AC19" s="103" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="AD19" s="104" t="str">
@@ -4214,23 +4234,23 @@
         <v>n.a.</v>
       </c>
       <c r="AH19" s="149" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI19" s="164" t="str">
         <f>IFERROR(VLOOKUP($B19,TH!$A:$AJ, 27,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AJ19" s="98" t="str">
-        <f t="shared" si="6"/>
+      <c r="AJ19" s="104" t="str">
+        <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AK19" s="101" t="str">
-        <f t="shared" si="7"/>
+      <c r="AK19" s="172" t="str">
+        <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
-      <c r="AL19" s="98" t="str">
-        <f t="shared" si="8"/>
+      <c r="AL19" s="104" t="str">
+        <f t="shared" si="10"/>
         <v>n.a.</v>
       </c>
       <c r="AM19" s="105" t="str">
@@ -4238,7 +4258,7 @@
         <v>n.a.</v>
       </c>
       <c r="AN19" s="120" t="str">
-        <f>IFERROR(AR19/M19*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO19" s="107" t="e">
@@ -4261,24 +4281,24 @@
         <f>IFERROR(VLOOKUP($B19,TH!$A:$AJ, 32,FALSE), "")</f>
         <v/>
       </c>
-      <c r="AT19" s="98" t="str">
-        <f t="shared" si="9"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AU19" s="98" t="str">
-        <f t="shared" si="10"/>
-        <v>n.a.</v>
-      </c>
-      <c r="AV19" s="94" t="str">
+      <c r="AT19" s="104" t="str">
         <f t="shared" si="11"/>
         <v>n.a.</v>
       </c>
+      <c r="AU19" s="104" t="str">
+        <f t="shared" si="12"/>
+        <v>n.a.</v>
+      </c>
+      <c r="AV19" s="173" t="str">
+        <f t="shared" si="13"/>
+        <v>n.a.</v>
+      </c>
       <c r="AW19" s="105" t="str">
-        <f t="shared" ref="AW19" si="12">IFERROR(-AS19+AV19, "n.a.")</f>
+        <f t="shared" ref="AW19" si="14">IFERROR(-AS19+AV19, "n.a.")</f>
         <v>n.a.</v>
       </c>
       <c r="AX19" s="120" t="str">
-        <f>IFERROR(BB19/M19*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY19" s="107" t="e">
@@ -4320,31 +4340,31 @@
       <c r="H20" s="133"/>
       <c r="I20" s="132"/>
       <c r="J20" s="134" t="e">
-        <f t="shared" ref="J20:P20" si="13">SUM(J4:J19)</f>
+        <f t="shared" ref="J20:P20" si="15">SUM(J4:J19)</f>
         <v>#N/A</v>
       </c>
       <c r="K20" s="134" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="L20" s="134" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="M20" s="134" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="N20" s="134" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="O20" s="134" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="P20" s="134" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
       <c r="Q20" s="134"/>
@@ -4359,8 +4379,8 @@
       <c r="Z20" s="134"/>
       <c r="AA20" s="134"/>
       <c r="AB20" s="134"/>
-      <c r="AC20" s="97">
-        <f t="shared" si="4"/>
+      <c r="AC20" s="171">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD20" s="133" t="str">
@@ -4377,7 +4397,7 @@
       </c>
       <c r="AG20" s="133"/>
       <c r="AH20" s="163" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>n.a.</v>
       </c>
       <c r="AI20" s="137"/>
@@ -4395,7 +4415,7 @@
       </c>
       <c r="AM20" s="133"/>
       <c r="AN20" s="150" t="str">
-        <f>IFERROR(AR20/M20*30,"n.a.")</f>
+        <f t="shared" si="3"/>
         <v>n.a.</v>
       </c>
       <c r="AO20" s="134" t="e">
@@ -4429,7 +4449,7 @@
       </c>
       <c r="AW20" s="133"/>
       <c r="AX20" s="133" t="str">
-        <f>IFERROR(BB20/M20*30,"n.a.")</f>
+        <f t="shared" si="5"/>
         <v>n.a.</v>
       </c>
       <c r="AY20" s="134" t="e">

--- a/TH/wc_template_TH_v3.xlsx
+++ b/TH/wc_template_TH_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yutong.zou\Desktop\weekly_wc_th\TH\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8E248B-540B-4903-9DD8-55E7DB41D9F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADAE2E5-58D4-40F8-9F55-DDEA4EBCE3F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracking" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="104">
   <si>
     <t>Supplier Name</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>Monthly Inbounds (US$)</t>
+  </si>
+  <si>
+    <t>L90D</t>
   </si>
 </sst>
 </file>
@@ -1174,6 +1177,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1188,15 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1849,15 +1852,15 @@
       <c r="H4" s="108"/>
       <c r="I4" s="108"/>
       <c r="J4" s="96" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K4" s="96" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L4" s="96" t="e">
-        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B4,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M4" s="96" t="e">
@@ -2004,15 +2007,15 @@
       <c r="H5" s="108"/>
       <c r="I5" s="108"/>
       <c r="J5" s="96" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K5" s="96" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L5" s="96" t="e">
-        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B5,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M5" s="96" t="e">
@@ -2159,15 +2162,15 @@
       <c r="H6" s="108"/>
       <c r="I6" s="108"/>
       <c r="J6" s="96" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K6" s="96" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L6" s="96" t="e">
-        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B6,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M6" s="96" t="e">
@@ -2314,15 +2317,15 @@
       <c r="H7" s="108"/>
       <c r="I7" s="108"/>
       <c r="J7" s="96" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K7" s="96" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L7" s="96" t="e">
-        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B7,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M7" s="96" t="e">
@@ -2469,15 +2472,15 @@
       <c r="H8" s="108"/>
       <c r="I8" s="108"/>
       <c r="J8" s="96" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K8" s="96" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L8" s="96" t="e">
-        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B8,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M8" s="96" t="e">
@@ -2624,15 +2627,15 @@
       <c r="H9" s="108"/>
       <c r="I9" s="108"/>
       <c r="J9" s="96" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K9" s="96" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L9" s="96" t="e">
-        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B9,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M9" s="96" t="e">
@@ -2779,15 +2782,15 @@
       <c r="H10" s="108"/>
       <c r="I10" s="108"/>
       <c r="J10" s="96" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K10" s="96" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L10" s="96" t="e">
-        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B10,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M10" s="96" t="e">
@@ -2934,15 +2937,15 @@
       <c r="H11" s="108"/>
       <c r="I11" s="108"/>
       <c r="J11" s="96" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K11" s="96" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L11" s="96" t="e">
-        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B11,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M11" s="96" t="e">
@@ -3089,15 +3092,15 @@
       <c r="H12" s="108"/>
       <c r="I12" s="108"/>
       <c r="J12" s="96" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K12" s="96" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L12" s="96" t="e">
-        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B12,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M12" s="96" t="e">
@@ -3244,15 +3247,15 @@
       <c r="H13" s="108"/>
       <c r="I13" s="108"/>
       <c r="J13" s="96" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K13" s="96" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L13" s="96" t="e">
-        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B13,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M13" s="96" t="e">
@@ -3399,15 +3402,15 @@
       <c r="H14" s="108"/>
       <c r="I14" s="108"/>
       <c r="J14" s="96" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K14" s="96" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L14" s="96" t="e">
-        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B14,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M14" s="96" t="e">
@@ -3554,15 +3557,15 @@
       <c r="H15" s="108"/>
       <c r="I15" s="108"/>
       <c r="J15" s="96" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K15" s="96" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L15" s="96" t="e">
-        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B15,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M15" s="96" t="e">
@@ -3709,15 +3712,15 @@
       <c r="H16" s="108"/>
       <c r="I16" s="108"/>
       <c r="J16" s="96" t="e">
-        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K16" s="96" t="e">
-        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L16" s="96" t="e">
-        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B16,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M16" s="96" t="e">
@@ -3864,15 +3867,15 @@
       <c r="H17" s="108"/>
       <c r="I17" s="108"/>
       <c r="J17" s="96" t="e">
-        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K17" s="96" t="e">
-        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L17" s="96" t="e">
-        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B17,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M17" s="96" t="e">
@@ -4019,15 +4022,15 @@
       <c r="H18" s="108"/>
       <c r="I18" s="108"/>
       <c r="J18" s="96" t="e">
-        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K18" s="96" t="e">
-        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L18" s="96" t="e">
-        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B18,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M18" s="96" t="e">
@@ -4174,15 +4177,15 @@
       <c r="H19" s="108"/>
       <c r="I19" s="108"/>
       <c r="J19" s="107" t="e">
-        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,2,FALSE)</f>
+        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,2,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="K19" s="107" t="e">
-        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,3,FALSE)</f>
+        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,3,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="L19" s="107" t="e">
-        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,4,FALSE)</f>
+        <f>VLOOKUP($B19,'Daily COGS'!$B:$F,4,FALSE)/3</f>
         <v>#N/A</v>
       </c>
       <c r="M19" s="107" t="e">
@@ -4245,7 +4248,7 @@
         <f t="shared" si="8"/>
         <v>n.a.</v>
       </c>
-      <c r="AK19" s="172" t="str">
+      <c r="AK19" s="167" t="str">
         <f t="shared" si="9"/>
         <v>n.a.</v>
       </c>
@@ -4289,7 +4292,7 @@
         <f t="shared" si="12"/>
         <v>n.a.</v>
       </c>
-      <c r="AV19" s="173" t="str">
+      <c r="AV19" s="168" t="str">
         <f t="shared" si="13"/>
         <v>n.a.</v>
       </c>
@@ -4379,7 +4382,7 @@
       <c r="Z20" s="134"/>
       <c r="AA20" s="134"/>
       <c r="AB20" s="134"/>
-      <c r="AC20" s="171">
+      <c r="AC20" s="166">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -7684,54 +7687,54 @@
       <c r="A2" s="24"/>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="166" t="s">
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="169" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="166" t="s">
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="171"/>
+      <c r="L2" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="166" t="s">
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="167"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="167" t="s">
+      <c r="Q2" s="170"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="167"/>
-      <c r="V2" s="167"/>
-      <c r="W2" s="167"/>
-      <c r="X2" s="166" t="s">
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="169" t="s">
         <v>16</v>
       </c>
-      <c r="Y2" s="167"/>
-      <c r="Z2" s="167"/>
-      <c r="AA2" s="167"/>
-      <c r="AB2" s="168"/>
-      <c r="AC2" s="166" t="s">
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="170"/>
+      <c r="AB2" s="171"/>
+      <c r="AC2" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="AD2" s="167"/>
-      <c r="AE2" s="167"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="168"/>
-      <c r="AH2" s="169" t="s">
+      <c r="AD2" s="170"/>
+      <c r="AE2" s="170"/>
+      <c r="AF2" s="170"/>
+      <c r="AG2" s="171"/>
+      <c r="AH2" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="AI2" s="170"/>
+      <c r="AI2" s="173"/>
       <c r="AJ2" s="154"/>
     </row>
     <row r="3" spans="1:36" ht="29" x14ac:dyDescent="0.35">
@@ -9781,7 +9784,7 @@
         <v>57</v>
       </c>
       <c r="E2" s="121" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="F2" s="124" t="s">
         <v>59</v>
